--- a/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
@@ -415,10 +415,10 @@
         <v>20.65259284317594</v>
       </c>
       <c r="C2">
-        <v>16.2666052033838</v>
+        <v>16.26660520338379</v>
       </c>
       <c r="D2">
-        <v>3.591313472745013</v>
+        <v>3.591313472745078</v>
       </c>
       <c r="F2">
         <v>24.01219415653714</v>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>14.49259776780196</v>
+        <v>14.49259776780199</v>
       </c>
       <c r="J2">
         <v>18.82561537663785</v>
@@ -441,19 +441,19 @@
         <v>19.23920490465919</v>
       </c>
       <c r="C3">
-        <v>15.13036106010156</v>
+        <v>15.13036106010162</v>
       </c>
       <c r="D3">
-        <v>3.655444236649496</v>
+        <v>3.655444236649616</v>
       </c>
       <c r="F3">
-        <v>23.13278251990531</v>
+        <v>23.13278251990536</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>14.5544085607779</v>
+        <v>14.55440856077795</v>
       </c>
       <c r="J3">
         <v>17.56301231396402</v>
@@ -464,25 +464,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.32377377456907</v>
+        <v>18.32377377456915</v>
       </c>
       <c r="C4">
-        <v>14.39607520056759</v>
+        <v>14.39607520056766</v>
       </c>
       <c r="D4">
-        <v>3.696047676811098</v>
+        <v>3.696047676811025</v>
       </c>
       <c r="F4">
-        <v>22.61987349173667</v>
+        <v>22.6198734917365</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14.62039705390911</v>
+        <v>14.62039705390896</v>
       </c>
       <c r="J4">
-        <v>16.74643914333879</v>
+        <v>16.7464391433389</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -490,25 +490,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.93862719429046</v>
+        <v>17.93862719429057</v>
       </c>
       <c r="C5">
         <v>14.0875102181219</v>
       </c>
       <c r="D5">
-        <v>3.712897216805902</v>
+        <v>3.712897216805899</v>
       </c>
       <c r="F5">
-        <v>22.41774521718706</v>
+        <v>22.41774521718699</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.6538192719168</v>
+        <v>14.6538192719166</v>
       </c>
       <c r="J5">
-        <v>16.40318478125666</v>
+        <v>16.40318478125673</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -516,25 +516,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87393935712653</v>
+        <v>17.87393935712664</v>
       </c>
       <c r="C6">
-        <v>14.03570567984055</v>
+        <v>14.03570567984069</v>
       </c>
       <c r="D6">
-        <v>3.715713277122817</v>
+        <v>3.715713277122684</v>
       </c>
       <c r="F6">
-        <v>22.38460000105821</v>
+        <v>22.38460000105793</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14.65974863299735</v>
+        <v>14.65974863299702</v>
       </c>
       <c r="J6">
-        <v>16.34555109391393</v>
+        <v>16.34555109391409</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -542,25 +542,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.31862871686696</v>
+        <v>18.31862871686695</v>
       </c>
       <c r="C7">
-        <v>14.39195175632243</v>
+        <v>14.39195175632216</v>
       </c>
       <c r="D7">
-        <v>3.696273692835662</v>
+        <v>3.69627369283587</v>
       </c>
       <c r="F7">
-        <v>22.61711953774426</v>
+        <v>22.61711953774447</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14.62082202603365</v>
+        <v>14.62082202603389</v>
       </c>
       <c r="J7">
-        <v>16.74185251141687</v>
+        <v>16.74185251141676</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -568,25 +568,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.17505638194962</v>
+        <v>20.17505638194969</v>
       </c>
       <c r="C8">
-        <v>15.88235135550025</v>
+        <v>15.88235135550024</v>
       </c>
       <c r="D8">
-        <v>3.613167287270024</v>
+        <v>3.613167287270105</v>
       </c>
       <c r="F8">
-        <v>23.70341146041118</v>
+        <v>23.7034114604109</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14.507774770282</v>
+        <v>14.50777477028164</v>
       </c>
       <c r="J8">
-        <v>18.39878306316399</v>
+        <v>18.39878306316405</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -594,25 +594,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.44406201229902</v>
+        <v>23.44406201229897</v>
       </c>
       <c r="C9">
-        <v>18.52053747243391</v>
+        <v>18.52053747243399</v>
       </c>
       <c r="D9">
-        <v>3.460300080160168</v>
+        <v>3.460300080160293</v>
       </c>
       <c r="F9">
-        <v>26.04457272329503</v>
+        <v>26.04457272329506</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14.53231985869952</v>
+        <v>14.53231985869957</v>
       </c>
       <c r="J9">
-        <v>21.32528734647594</v>
+        <v>21.32528734647589</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -620,25 +620,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.62875881264721</v>
+        <v>25.62875881264726</v>
       </c>
       <c r="C10">
-        <v>20.29460189601445</v>
+        <v>20.29460189601446</v>
       </c>
       <c r="D10">
-        <v>3.354928793945841</v>
+        <v>3.354928793945655</v>
       </c>
       <c r="F10">
-        <v>27.88967946249413</v>
+        <v>27.88967946249422</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.73330200501863</v>
+        <v>14.73330200501859</v>
       </c>
       <c r="J10">
-        <v>23.28678319711726</v>
+        <v>23.28678319711729</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -646,25 +646,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.5777828443927</v>
+        <v>26.57778284439268</v>
       </c>
       <c r="C11">
-        <v>21.0682659212331</v>
+        <v>21.06826592123307</v>
       </c>
       <c r="D11">
-        <v>3.308774114883704</v>
+        <v>3.308774114883596</v>
       </c>
       <c r="F11">
-        <v>28.75620545988414</v>
+        <v>28.75620545988409</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14.87144523618528</v>
+        <v>14.87144523618527</v>
       </c>
       <c r="J11">
-        <v>24.14021708008919</v>
+        <v>24.14021708008917</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -672,25 +672,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.93091745632101</v>
+        <v>26.93091745632102</v>
       </c>
       <c r="C12">
-        <v>21.35664124374799</v>
+        <v>21.35664124374804</v>
       </c>
       <c r="D12">
-        <v>3.29158508791974</v>
+        <v>3.291585087919749</v>
       </c>
       <c r="F12">
-        <v>29.08831363510497</v>
+        <v>29.08831363510498</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14.93103388570142</v>
+        <v>14.9310338857014</v>
       </c>
       <c r="J12">
-        <v>24.45799278358718</v>
+        <v>24.45799278358722</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -698,25 +698,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.85513769663394</v>
+        <v>26.85513769663396</v>
       </c>
       <c r="C13">
-        <v>21.29473532944389</v>
+        <v>21.29473532944381</v>
       </c>
       <c r="D13">
-        <v>3.295273586778132</v>
+        <v>3.29527358677814</v>
       </c>
       <c r="F13">
-        <v>29.01660966692049</v>
+        <v>29.01660966692062</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14.91786802912752</v>
+        <v>14.91786802912754</v>
       </c>
       <c r="J13">
-        <v>24.38979112414643</v>
+        <v>24.38979112414641</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -724,25 +724,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.60695927386062</v>
+        <v>26.60695927386054</v>
       </c>
       <c r="C14">
-        <v>21.09208157106827</v>
+        <v>21.09208157106834</v>
       </c>
       <c r="D14">
-        <v>3.307353954956792</v>
+        <v>3.307353954956788</v>
       </c>
       <c r="F14">
-        <v>28.78344793535597</v>
+        <v>28.78344793535602</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14.87619864478516</v>
+        <v>14.87619864478525</v>
       </c>
       <c r="J14">
-        <v>24.16646778312742</v>
+        <v>24.16646778312736</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -750,16 +750,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.45413651272338</v>
+        <v>26.45413651272339</v>
       </c>
       <c r="C15">
-        <v>20.96735835883502</v>
+        <v>20.96735835883495</v>
       </c>
       <c r="D15">
-        <v>3.314792265713917</v>
+        <v>3.314792265713918</v>
       </c>
       <c r="F15">
-        <v>28.64115026509047</v>
+        <v>28.64115026509046</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>14.85163892942075</v>
       </c>
       <c r="J15">
-        <v>24.02897828763062</v>
+        <v>24.02897828763059</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -776,25 +776,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.56585316585153</v>
+        <v>25.56585316585146</v>
       </c>
       <c r="C16">
         <v>20.24338665229214</v>
       </c>
       <c r="D16">
-        <v>3.357983522942247</v>
+        <v>3.35798352294237</v>
       </c>
       <c r="F16">
-        <v>27.83360086707968</v>
+        <v>27.83360086707972</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.72526220057794</v>
+        <v>14.72526220057804</v>
       </c>
       <c r="J16">
-        <v>23.23024283766357</v>
+        <v>23.23024283766349</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -802,25 +802,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.00958280170882</v>
+        <v>25.00958280170887</v>
       </c>
       <c r="C17">
-        <v>19.79084601838956</v>
+        <v>19.79084601838957</v>
       </c>
       <c r="D17">
         <v>3.384956331426274</v>
       </c>
       <c r="F17">
-        <v>27.34518166383533</v>
+        <v>27.34518166383538</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.66010167118849</v>
+        <v>14.66010167118847</v>
       </c>
       <c r="J17">
-        <v>22.73041821286876</v>
+        <v>22.73041821286881</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -831,19 +831,19 @@
         <v>24.68540031005216</v>
       </c>
       <c r="C18">
-        <v>19.52740265552785</v>
+        <v>19.52740265552784</v>
       </c>
       <c r="D18">
-        <v>3.400635398874356</v>
+        <v>3.400635398874353</v>
       </c>
       <c r="F18">
-        <v>27.06680623020456</v>
+        <v>27.06680623020454</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.62698752570849</v>
+        <v>14.62698752570846</v>
       </c>
       <c r="J18">
         <v>22.43926226371472</v>
@@ -854,25 +854,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.57490522164499</v>
+        <v>24.57490522164505</v>
       </c>
       <c r="C19">
-        <v>19.43765768668437</v>
+        <v>19.43765768668449</v>
       </c>
       <c r="D19">
-        <v>3.405971544809757</v>
+        <v>3.405971544809637</v>
       </c>
       <c r="F19">
-        <v>26.97299023299435</v>
+        <v>26.9729902329943</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.61650796142091</v>
+        <v>14.61650796142084</v>
       </c>
       <c r="J19">
-        <v>22.34004615506157</v>
+        <v>22.34004615506159</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -880,25 +880,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.0692351621664</v>
+        <v>25.06923516216641</v>
       </c>
       <c r="C20">
-        <v>19.83934475388111</v>
+        <v>19.83934475388094</v>
       </c>
       <c r="D20">
-        <v>3.38206774095365</v>
+        <v>3.382067740953805</v>
       </c>
       <c r="F20">
-        <v>27.39691051322219</v>
+        <v>27.39691051322238</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.66658231536651</v>
+        <v>14.66658231536662</v>
       </c>
       <c r="J20">
-        <v>22.78400394259369</v>
+        <v>22.78400394259362</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -906,22 +906,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.68002293748233</v>
+        <v>26.68002293748232</v>
       </c>
       <c r="C21">
-        <v>21.1517288572309</v>
+        <v>21.15172885723097</v>
       </c>
       <c r="D21">
-        <v>3.303797513309648</v>
+        <v>3.303797513309714</v>
       </c>
       <c r="F21">
-        <v>28.85182447213336</v>
+        <v>28.85182447213344</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14.88823608366293</v>
+        <v>14.88823608366292</v>
       </c>
       <c r="J21">
         <v>24.23220825765099</v>
@@ -932,25 +932,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.69650183274208</v>
+        <v>27.69650183274205</v>
       </c>
       <c r="C22">
-        <v>21.98277800427651</v>
+        <v>21.98277800427661</v>
       </c>
       <c r="D22">
-        <v>3.254348768280419</v>
+        <v>3.254348768280376</v>
       </c>
       <c r="F22">
-        <v>29.82593957053926</v>
+        <v>29.82593957053917</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15.07576242437426</v>
+        <v>15.07576242437417</v>
       </c>
       <c r="J22">
-        <v>25.14731316288505</v>
+        <v>25.14731316288506</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -961,22 +961,22 @@
         <v>27.15723388890189</v>
       </c>
       <c r="C23">
-        <v>21.54159879021692</v>
+        <v>21.54159879021687</v>
       </c>
       <c r="D23">
-        <v>3.280571069643305</v>
+        <v>3.280571069643154</v>
       </c>
       <c r="F23">
-        <v>29.30386844569988</v>
+        <v>29.30386844569984</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14.9715918003234</v>
+        <v>14.97159180032336</v>
       </c>
       <c r="J23">
-        <v>24.66170855044677</v>
+        <v>24.66170855044675</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -984,25 +984,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.0422799730083</v>
+        <v>25.04227997300832</v>
       </c>
       <c r="C24">
-        <v>19.81742868137308</v>
+        <v>19.81742868137311</v>
       </c>
       <c r="D24">
-        <v>3.383373139203771</v>
+        <v>3.383373139203719</v>
       </c>
       <c r="F24">
-        <v>27.37351635641366</v>
+        <v>27.37351635641359</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.66363891719516</v>
+        <v>14.66363891719513</v>
       </c>
       <c r="J24">
-        <v>22.75978968455705</v>
+        <v>22.75978968455708</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1010,25 +1010,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.59854641502341</v>
+        <v>22.59854641502344</v>
       </c>
       <c r="C25">
-        <v>17.8363862863432</v>
+        <v>17.83638628634322</v>
       </c>
       <c r="D25">
-        <v>3.500508758670277</v>
+        <v>3.500508758670389</v>
       </c>
       <c r="F25">
-        <v>25.3891029175805</v>
+        <v>25.38910291758047</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14.49593577977338</v>
+        <v>14.49593577977335</v>
       </c>
       <c r="J25">
-        <v>20.56735221736491</v>
+        <v>20.56735221736497</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
@@ -415,10 +415,10 @@
         <v>20.65259284317594</v>
       </c>
       <c r="C2">
-        <v>16.26660520338379</v>
+        <v>16.2666052033838</v>
       </c>
       <c r="D2">
-        <v>3.591313472745078</v>
+        <v>3.591313472745013</v>
       </c>
       <c r="F2">
         <v>24.01219415653714</v>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>14.49259776780199</v>
+        <v>14.49259776780196</v>
       </c>
       <c r="J2">
         <v>18.82561537663785</v>
@@ -441,19 +441,19 @@
         <v>19.23920490465919</v>
       </c>
       <c r="C3">
-        <v>15.13036106010162</v>
+        <v>15.13036106010156</v>
       </c>
       <c r="D3">
-        <v>3.655444236649616</v>
+        <v>3.655444236649496</v>
       </c>
       <c r="F3">
-        <v>23.13278251990536</v>
+        <v>23.13278251990531</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>14.55440856077795</v>
+        <v>14.5544085607779</v>
       </c>
       <c r="J3">
         <v>17.56301231396402</v>
@@ -464,25 +464,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.32377377456915</v>
+        <v>18.32377377456907</v>
       </c>
       <c r="C4">
-        <v>14.39607520056766</v>
+        <v>14.39607520056759</v>
       </c>
       <c r="D4">
-        <v>3.696047676811025</v>
+        <v>3.696047676811098</v>
       </c>
       <c r="F4">
-        <v>22.6198734917365</v>
+        <v>22.61987349173667</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14.62039705390896</v>
+        <v>14.62039705390911</v>
       </c>
       <c r="J4">
-        <v>16.7464391433389</v>
+        <v>16.74643914333879</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -490,25 +490,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.93862719429057</v>
+        <v>17.93862719429046</v>
       </c>
       <c r="C5">
         <v>14.0875102181219</v>
       </c>
       <c r="D5">
-        <v>3.712897216805899</v>
+        <v>3.712897216805902</v>
       </c>
       <c r="F5">
-        <v>22.41774521718699</v>
+        <v>22.41774521718706</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.6538192719166</v>
+        <v>14.6538192719168</v>
       </c>
       <c r="J5">
-        <v>16.40318478125673</v>
+        <v>16.40318478125666</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -516,25 +516,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87393935712664</v>
+        <v>17.87393935712653</v>
       </c>
       <c r="C6">
-        <v>14.03570567984069</v>
+        <v>14.03570567984055</v>
       </c>
       <c r="D6">
-        <v>3.715713277122684</v>
+        <v>3.715713277122817</v>
       </c>
       <c r="F6">
-        <v>22.38460000105793</v>
+        <v>22.38460000105821</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14.65974863299702</v>
+        <v>14.65974863299735</v>
       </c>
       <c r="J6">
-        <v>16.34555109391409</v>
+        <v>16.34555109391393</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -542,25 +542,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.31862871686695</v>
+        <v>18.31862871686696</v>
       </c>
       <c r="C7">
-        <v>14.39195175632216</v>
+        <v>14.39195175632243</v>
       </c>
       <c r="D7">
-        <v>3.69627369283587</v>
+        <v>3.696273692835662</v>
       </c>
       <c r="F7">
-        <v>22.61711953774447</v>
+        <v>22.61711953774426</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14.62082202603389</v>
+        <v>14.62082202603365</v>
       </c>
       <c r="J7">
-        <v>16.74185251141676</v>
+        <v>16.74185251141687</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -568,25 +568,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.17505638194969</v>
+        <v>20.17505638194962</v>
       </c>
       <c r="C8">
-        <v>15.88235135550024</v>
+        <v>15.88235135550025</v>
       </c>
       <c r="D8">
-        <v>3.613167287270105</v>
+        <v>3.613167287270024</v>
       </c>
       <c r="F8">
-        <v>23.7034114604109</v>
+        <v>23.70341146041118</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14.50777477028164</v>
+        <v>14.507774770282</v>
       </c>
       <c r="J8">
-        <v>18.39878306316405</v>
+        <v>18.39878306316399</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -594,25 +594,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.44406201229897</v>
+        <v>23.44406201229902</v>
       </c>
       <c r="C9">
-        <v>18.52053747243399</v>
+        <v>18.52053747243391</v>
       </c>
       <c r="D9">
-        <v>3.460300080160293</v>
+        <v>3.460300080160168</v>
       </c>
       <c r="F9">
-        <v>26.04457272329506</v>
+        <v>26.04457272329503</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14.53231985869957</v>
+        <v>14.53231985869952</v>
       </c>
       <c r="J9">
-        <v>21.32528734647589</v>
+        <v>21.32528734647594</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -620,25 +620,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.62875881264726</v>
+        <v>25.62875881264721</v>
       </c>
       <c r="C10">
-        <v>20.29460189601446</v>
+        <v>20.29460189601445</v>
       </c>
       <c r="D10">
-        <v>3.354928793945655</v>
+        <v>3.354928793945841</v>
       </c>
       <c r="F10">
-        <v>27.88967946249422</v>
+        <v>27.88967946249413</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.73330200501859</v>
+        <v>14.73330200501863</v>
       </c>
       <c r="J10">
-        <v>23.28678319711729</v>
+        <v>23.28678319711726</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -646,25 +646,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.57778284439268</v>
+        <v>26.5777828443927</v>
       </c>
       <c r="C11">
-        <v>21.06826592123307</v>
+        <v>21.0682659212331</v>
       </c>
       <c r="D11">
-        <v>3.308774114883596</v>
+        <v>3.308774114883704</v>
       </c>
       <c r="F11">
-        <v>28.75620545988409</v>
+        <v>28.75620545988414</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14.87144523618527</v>
+        <v>14.87144523618528</v>
       </c>
       <c r="J11">
-        <v>24.14021708008917</v>
+        <v>24.14021708008919</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -672,25 +672,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.93091745632102</v>
+        <v>26.93091745632101</v>
       </c>
       <c r="C12">
-        <v>21.35664124374804</v>
+        <v>21.35664124374799</v>
       </c>
       <c r="D12">
-        <v>3.291585087919749</v>
+        <v>3.29158508791974</v>
       </c>
       <c r="F12">
-        <v>29.08831363510498</v>
+        <v>29.08831363510497</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14.9310338857014</v>
+        <v>14.93103388570142</v>
       </c>
       <c r="J12">
-        <v>24.45799278358722</v>
+        <v>24.45799278358718</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -698,25 +698,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.85513769663396</v>
+        <v>26.85513769663394</v>
       </c>
       <c r="C13">
-        <v>21.29473532944381</v>
+        <v>21.29473532944389</v>
       </c>
       <c r="D13">
-        <v>3.29527358677814</v>
+        <v>3.295273586778132</v>
       </c>
       <c r="F13">
-        <v>29.01660966692062</v>
+        <v>29.01660966692049</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14.91786802912754</v>
+        <v>14.91786802912752</v>
       </c>
       <c r="J13">
-        <v>24.38979112414641</v>
+        <v>24.38979112414643</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -724,25 +724,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.60695927386054</v>
+        <v>26.60695927386062</v>
       </c>
       <c r="C14">
-        <v>21.09208157106834</v>
+        <v>21.09208157106827</v>
       </c>
       <c r="D14">
-        <v>3.307353954956788</v>
+        <v>3.307353954956792</v>
       </c>
       <c r="F14">
-        <v>28.78344793535602</v>
+        <v>28.78344793535597</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14.87619864478525</v>
+        <v>14.87619864478516</v>
       </c>
       <c r="J14">
-        <v>24.16646778312736</v>
+        <v>24.16646778312742</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -750,16 +750,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.45413651272339</v>
+        <v>26.45413651272338</v>
       </c>
       <c r="C15">
-        <v>20.96735835883495</v>
+        <v>20.96735835883502</v>
       </c>
       <c r="D15">
-        <v>3.314792265713918</v>
+        <v>3.314792265713917</v>
       </c>
       <c r="F15">
-        <v>28.64115026509046</v>
+        <v>28.64115026509047</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>14.85163892942075</v>
       </c>
       <c r="J15">
-        <v>24.02897828763059</v>
+        <v>24.02897828763062</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -776,25 +776,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.56585316585146</v>
+        <v>25.56585316585153</v>
       </c>
       <c r="C16">
         <v>20.24338665229214</v>
       </c>
       <c r="D16">
-        <v>3.35798352294237</v>
+        <v>3.357983522942247</v>
       </c>
       <c r="F16">
-        <v>27.83360086707972</v>
+        <v>27.83360086707968</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.72526220057804</v>
+        <v>14.72526220057794</v>
       </c>
       <c r="J16">
-        <v>23.23024283766349</v>
+        <v>23.23024283766357</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -802,25 +802,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.00958280170887</v>
+        <v>25.00958280170882</v>
       </c>
       <c r="C17">
-        <v>19.79084601838957</v>
+        <v>19.79084601838956</v>
       </c>
       <c r="D17">
         <v>3.384956331426274</v>
       </c>
       <c r="F17">
-        <v>27.34518166383538</v>
+        <v>27.34518166383533</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.66010167118847</v>
+        <v>14.66010167118849</v>
       </c>
       <c r="J17">
-        <v>22.73041821286881</v>
+        <v>22.73041821286876</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -831,19 +831,19 @@
         <v>24.68540031005216</v>
       </c>
       <c r="C18">
-        <v>19.52740265552784</v>
+        <v>19.52740265552785</v>
       </c>
       <c r="D18">
-        <v>3.400635398874353</v>
+        <v>3.400635398874356</v>
       </c>
       <c r="F18">
-        <v>27.06680623020454</v>
+        <v>27.06680623020456</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.62698752570846</v>
+        <v>14.62698752570849</v>
       </c>
       <c r="J18">
         <v>22.43926226371472</v>
@@ -854,25 +854,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.57490522164505</v>
+        <v>24.57490522164499</v>
       </c>
       <c r="C19">
-        <v>19.43765768668449</v>
+        <v>19.43765768668437</v>
       </c>
       <c r="D19">
-        <v>3.405971544809637</v>
+        <v>3.405971544809757</v>
       </c>
       <c r="F19">
-        <v>26.9729902329943</v>
+        <v>26.97299023299435</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.61650796142084</v>
+        <v>14.61650796142091</v>
       </c>
       <c r="J19">
-        <v>22.34004615506159</v>
+        <v>22.34004615506157</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -880,25 +880,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.06923516216641</v>
+        <v>25.0692351621664</v>
       </c>
       <c r="C20">
-        <v>19.83934475388094</v>
+        <v>19.83934475388111</v>
       </c>
       <c r="D20">
-        <v>3.382067740953805</v>
+        <v>3.38206774095365</v>
       </c>
       <c r="F20">
-        <v>27.39691051322238</v>
+        <v>27.39691051322219</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.66658231536662</v>
+        <v>14.66658231536651</v>
       </c>
       <c r="J20">
-        <v>22.78400394259362</v>
+        <v>22.78400394259369</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -906,22 +906,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.68002293748232</v>
+        <v>26.68002293748233</v>
       </c>
       <c r="C21">
-        <v>21.15172885723097</v>
+        <v>21.1517288572309</v>
       </c>
       <c r="D21">
-        <v>3.303797513309714</v>
+        <v>3.303797513309648</v>
       </c>
       <c r="F21">
-        <v>28.85182447213344</v>
+        <v>28.85182447213336</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14.88823608366292</v>
+        <v>14.88823608366293</v>
       </c>
       <c r="J21">
         <v>24.23220825765099</v>
@@ -932,25 +932,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.69650183274205</v>
+        <v>27.69650183274208</v>
       </c>
       <c r="C22">
-        <v>21.98277800427661</v>
+        <v>21.98277800427651</v>
       </c>
       <c r="D22">
-        <v>3.254348768280376</v>
+        <v>3.254348768280419</v>
       </c>
       <c r="F22">
-        <v>29.82593957053917</v>
+        <v>29.82593957053926</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15.07576242437417</v>
+        <v>15.07576242437426</v>
       </c>
       <c r="J22">
-        <v>25.14731316288506</v>
+        <v>25.14731316288505</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -961,22 +961,22 @@
         <v>27.15723388890189</v>
       </c>
       <c r="C23">
-        <v>21.54159879021687</v>
+        <v>21.54159879021692</v>
       </c>
       <c r="D23">
-        <v>3.280571069643154</v>
+        <v>3.280571069643305</v>
       </c>
       <c r="F23">
-        <v>29.30386844569984</v>
+        <v>29.30386844569988</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14.97159180032336</v>
+        <v>14.9715918003234</v>
       </c>
       <c r="J23">
-        <v>24.66170855044675</v>
+        <v>24.66170855044677</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -984,25 +984,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.04227997300832</v>
+        <v>25.0422799730083</v>
       </c>
       <c r="C24">
-        <v>19.81742868137311</v>
+        <v>19.81742868137308</v>
       </c>
       <c r="D24">
-        <v>3.383373139203719</v>
+        <v>3.383373139203771</v>
       </c>
       <c r="F24">
-        <v>27.37351635641359</v>
+        <v>27.37351635641366</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.66363891719513</v>
+        <v>14.66363891719516</v>
       </c>
       <c r="J24">
-        <v>22.75978968455708</v>
+        <v>22.75978968455705</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1010,25 +1010,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.59854641502344</v>
+        <v>22.59854641502341</v>
       </c>
       <c r="C25">
-        <v>17.83638628634322</v>
+        <v>17.8363862863432</v>
       </c>
       <c r="D25">
-        <v>3.500508758670389</v>
+        <v>3.500508758670277</v>
       </c>
       <c r="F25">
-        <v>25.38910291758047</v>
+        <v>25.3891029175805</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>14.49593577977335</v>
+        <v>14.49593577977338</v>
       </c>
       <c r="J25">
-        <v>20.56735221736497</v>
+        <v>20.56735221736491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,629 +406,704 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.65259284317594</v>
+        <v>20.56001701962724</v>
       </c>
       <c r="C2">
-        <v>16.2666052033838</v>
+        <v>16.15120720304062</v>
       </c>
       <c r="D2">
-        <v>3.591313472745013</v>
+        <v>3.718672096033409</v>
       </c>
       <c r="F2">
-        <v>24.01219415653714</v>
+        <v>24.22921669529675</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.070173950153721</v>
       </c>
       <c r="H2">
-        <v>14.49259776780196</v>
-      </c>
-      <c r="J2">
-        <v>18.82561537663785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>14.7526384058088</v>
+      </c>
+      <c r="K2">
+        <v>18.71341432368326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.23920490465919</v>
+        <v>19.14907472508754</v>
       </c>
       <c r="C3">
-        <v>15.13036106010156</v>
+        <v>15.01833959596092</v>
       </c>
       <c r="D3">
-        <v>3.655444236649496</v>
+        <v>3.784967745437932</v>
       </c>
       <c r="F3">
-        <v>23.13278251990531</v>
+        <v>23.39041456466576</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.079390130863263</v>
       </c>
       <c r="H3">
-        <v>14.5544085607779</v>
-      </c>
-      <c r="J3">
-        <v>17.56301231396402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>14.83234353756874</v>
+      </c>
+      <c r="K3">
+        <v>17.45195324885952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.32377377456907</v>
+        <v>18.23511616732288</v>
       </c>
       <c r="C4">
-        <v>14.39607520056759</v>
+        <v>14.28614753968813</v>
       </c>
       <c r="D4">
-        <v>3.696047676811098</v>
+        <v>3.826860643746955</v>
       </c>
       <c r="F4">
-        <v>22.61987349173667</v>
+        <v>22.90379249215765</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.085179159947092</v>
       </c>
       <c r="H4">
-        <v>14.62039705390911</v>
-      </c>
-      <c r="J4">
-        <v>16.74643914333879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>14.90882631371913</v>
+      </c>
+      <c r="K4">
+        <v>16.63590955456731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.93862719429046</v>
+        <v>17.85056109906957</v>
       </c>
       <c r="C5">
-        <v>14.0875102181219</v>
+        <v>13.97844076495892</v>
       </c>
       <c r="D5">
-        <v>3.712897216805902</v>
+        <v>3.8442279646097</v>
       </c>
       <c r="F5">
-        <v>22.41774521718706</v>
+        <v>22.71267700895371</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.087572958666439</v>
       </c>
       <c r="H5">
-        <v>14.6538192719168</v>
-      </c>
-      <c r="J5">
-        <v>16.40318478125666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>14.94640921751511</v>
+      </c>
+      <c r="K5">
+        <v>16.29282354456258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87393935712653</v>
+        <v>17.78597091437602</v>
       </c>
       <c r="C6">
-        <v>14.03570567984055</v>
+        <v>13.92677901577748</v>
       </c>
       <c r="D6">
-        <v>3.715713277122817</v>
+        <v>3.847129600162081</v>
       </c>
       <c r="F6">
-        <v>22.38460000105821</v>
+        <v>22.68137736232573</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.087972599179909</v>
       </c>
       <c r="H6">
-        <v>14.65974863299735</v>
-      </c>
-      <c r="J6">
-        <v>16.34555109391393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>14.95302275330308</v>
+      </c>
+      <c r="K6">
+        <v>16.23521479940844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.31862871686696</v>
+        <v>18.22997912382242</v>
       </c>
       <c r="C7">
-        <v>14.39195175632243</v>
+        <v>14.28203565005562</v>
       </c>
       <c r="D7">
-        <v>3.696273692835662</v>
+        <v>3.827093671006693</v>
       </c>
       <c r="F7">
-        <v>22.61711953774426</v>
+        <v>22.90118589924516</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.08521130046236</v>
       </c>
       <c r="H7">
-        <v>14.62082202603365</v>
-      </c>
-      <c r="J7">
-        <v>16.74185251141687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>14.90930785444428</v>
+      </c>
+      <c r="K7">
+        <v>16.63132539160756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.17505638194962</v>
+        <v>20.08332928295881</v>
       </c>
       <c r="C8">
-        <v>15.88235135550025</v>
+        <v>15.76811332599631</v>
       </c>
       <c r="D8">
-        <v>3.613167287270024</v>
+        <v>3.741282118096168</v>
       </c>
       <c r="F8">
-        <v>23.70341146041118</v>
+        <v>23.93413348557089</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.073325885301425</v>
       </c>
       <c r="H8">
-        <v>14.507774770282</v>
-      </c>
-      <c r="J8">
-        <v>18.39878306316399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>14.77409160171187</v>
+      </c>
+      <c r="K8">
+        <v>18.28700923460902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.44406201229902</v>
+        <v>23.34609407739161</v>
       </c>
       <c r="C9">
-        <v>18.52053747243391</v>
+        <v>18.39797308099526</v>
       </c>
       <c r="D9">
-        <v>3.460300080160168</v>
+        <v>3.582671239893069</v>
       </c>
       <c r="F9">
-        <v>26.04457272329503</v>
+        <v>26.18284360271445</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.05095501200597</v>
       </c>
       <c r="H9">
-        <v>14.53231985869952</v>
-      </c>
-      <c r="J9">
-        <v>21.32528734647594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>14.7510783673317</v>
+      </c>
+      <c r="K9">
+        <v>21.20983511832269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.62875881264721</v>
+        <v>25.52607435364854</v>
       </c>
       <c r="C10">
-        <v>20.29460189601445</v>
+        <v>20.16595864719563</v>
       </c>
       <c r="D10">
-        <v>3.354928793945841</v>
+        <v>3.47260731717813</v>
       </c>
       <c r="F10">
-        <v>27.88967946249413</v>
+        <v>27.9688568484309</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.034940471023259</v>
       </c>
       <c r="H10">
-        <v>14.73330200501863</v>
-      </c>
-      <c r="J10">
-        <v>23.28678319711726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>14.91472944849847</v>
+      </c>
+      <c r="K10">
+        <v>23.16798121881136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.5777828443927</v>
+        <v>26.47291252359062</v>
       </c>
       <c r="C11">
-        <v>21.0682659212331</v>
+        <v>20.93684519035394</v>
       </c>
       <c r="D11">
-        <v>3.308774114883704</v>
+        <v>3.424157948699606</v>
       </c>
       <c r="F11">
-        <v>28.75620545988414</v>
+        <v>28.81057491353935</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.027708852930537</v>
       </c>
       <c r="H11">
-        <v>14.87144523618528</v>
-      </c>
-      <c r="J11">
-        <v>24.14021708008919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>15.03549804942406</v>
+      </c>
+      <c r="K11">
+        <v>24.01975591086031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.93091745632101</v>
+        <v>26.82521197893978</v>
       </c>
       <c r="C12">
-        <v>21.35664124374799</v>
+        <v>21.22416466411354</v>
       </c>
       <c r="D12">
-        <v>3.29158508791974</v>
+        <v>3.406071127113055</v>
       </c>
       <c r="F12">
-        <v>29.08831363510497</v>
+        <v>29.13359140032669</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.024974568104485</v>
       </c>
       <c r="H12">
-        <v>14.93103388570142</v>
-      </c>
-      <c r="J12">
-        <v>24.45799278358718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>15.08846840813346</v>
+      </c>
+      <c r="K12">
+        <v>24.33688329796142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.85513769663394</v>
+        <v>26.74961244675504</v>
       </c>
       <c r="C13">
-        <v>21.29473532944389</v>
+        <v>21.16248637005236</v>
       </c>
       <c r="D13">
-        <v>3.295273586778132</v>
+        <v>3.409954368937901</v>
       </c>
       <c r="F13">
-        <v>29.01660966692049</v>
+        <v>29.06383202972796</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.025563320214545</v>
       </c>
       <c r="H13">
-        <v>14.91786802912752</v>
-      </c>
-      <c r="J13">
-        <v>24.38979112414643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>15.07672932250042</v>
+      </c>
+      <c r="K13">
+        <v>24.26882217186068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.60695927386062</v>
+        <v>26.5020204041267</v>
       </c>
       <c r="C14">
-        <v>21.09208157106827</v>
+        <v>20.96057407188283</v>
       </c>
       <c r="D14">
-        <v>3.307353954956792</v>
+        <v>3.422664541848457</v>
       </c>
       <c r="F14">
-        <v>28.78344793535597</v>
+        <v>28.83706334375597</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.027483839695195</v>
       </c>
       <c r="H14">
-        <v>14.87619864478516</v>
-      </c>
-      <c r="J14">
-        <v>24.16646778312742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>15.0397076304632</v>
+      </c>
+      <c r="K14">
+        <v>24.04595368343387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.45413651272338</v>
+        <v>26.34955579428258</v>
       </c>
       <c r="C15">
-        <v>20.96735835883502</v>
+        <v>20.83630441606489</v>
       </c>
       <c r="D15">
-        <v>3.314792265713917</v>
+        <v>3.430484679081117</v>
       </c>
       <c r="F15">
-        <v>28.64115026509047</v>
+        <v>28.69872102254772</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.028660645166627</v>
       </c>
       <c r="H15">
-        <v>14.85163892942075</v>
-      </c>
-      <c r="J15">
-        <v>24.02897828763062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>15.0179902928797</v>
+      </c>
+      <c r="K15">
+        <v>23.90874016272978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.56585316585153</v>
+        <v>25.46331062057898</v>
       </c>
       <c r="C16">
-        <v>20.24338665229214</v>
+        <v>20.11492448701663</v>
       </c>
       <c r="D16">
-        <v>3.357983522942247</v>
+        <v>3.475808313500889</v>
       </c>
       <c r="F16">
-        <v>27.83360086707968</v>
+        <v>27.91444175028832</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.035413858875684</v>
       </c>
       <c r="H16">
-        <v>14.72526220057794</v>
-      </c>
-      <c r="J16">
-        <v>23.23024283766357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>14.9078186135281</v>
+      </c>
+      <c r="K16">
+        <v>23.11154653685355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.00958280170882</v>
+        <v>24.90827930100456</v>
       </c>
       <c r="C17">
-        <v>19.79084601838956</v>
+        <v>19.66396922028565</v>
       </c>
       <c r="D17">
-        <v>3.384956331426274</v>
+        <v>3.50404444117345</v>
       </c>
       <c r="F17">
-        <v>27.34518166383533</v>
+        <v>27.44083422303441</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.039568056100178</v>
       </c>
       <c r="H17">
-        <v>14.66010167118849</v>
-      </c>
-      <c r="J17">
-        <v>22.73041821286876</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>14.8525098197041</v>
+      </c>
+      <c r="K17">
+        <v>22.61263293687115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.68540031005216</v>
+        <v>24.58480581143104</v>
       </c>
       <c r="C18">
-        <v>19.52740265552785</v>
+        <v>19.4014367427727</v>
       </c>
       <c r="D18">
-        <v>3.400635398874356</v>
+        <v>3.520435482464825</v>
       </c>
       <c r="F18">
-        <v>27.06680623020456</v>
+        <v>27.1711734361299</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.041962707169537</v>
       </c>
       <c r="H18">
-        <v>14.62698752570849</v>
-      </c>
-      <c r="J18">
-        <v>22.43926226371472</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>14.82502381443457</v>
+      </c>
+      <c r="K18">
+        <v>22.32198832154414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.57490522164499</v>
+        <v>24.47455019060137</v>
       </c>
       <c r="C19">
-        <v>19.43765768668437</v>
+        <v>19.31200007851142</v>
       </c>
       <c r="D19">
-        <v>3.405971544809757</v>
+        <v>3.526010335702952</v>
       </c>
       <c r="F19">
-        <v>26.97299023299435</v>
+        <v>27.08034139108254</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.042774500097817</v>
       </c>
       <c r="H19">
-        <v>14.61650796142091</v>
-      </c>
-      <c r="J19">
-        <v>22.34004615506157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>14.8164428023074</v>
+      </c>
+      <c r="K19">
+        <v>22.22294317171357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.0692351621664</v>
+        <v>24.96780015229598</v>
       </c>
       <c r="C20">
-        <v>19.83934475388111</v>
+        <v>19.71229930685126</v>
       </c>
       <c r="D20">
-        <v>3.38206774095365</v>
+        <v>3.501022923995704</v>
       </c>
       <c r="F20">
-        <v>27.39691051322219</v>
+        <v>27.49096607454545</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.039125313821375</v>
       </c>
       <c r="H20">
-        <v>14.66658231536651</v>
-      </c>
-      <c r="J20">
-        <v>22.78400394259369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>14.85794558298462</v>
+      </c>
+      <c r="K20">
+        <v>22.66612299876667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.68002293748233</v>
+        <v>26.57491205064572</v>
       </c>
       <c r="C21">
-        <v>21.1517288572309</v>
+        <v>21.02000370514815</v>
       </c>
       <c r="D21">
-        <v>3.303797513309648</v>
+        <v>3.418923945736771</v>
       </c>
       <c r="F21">
-        <v>28.85182447213336</v>
+        <v>28.90355387280793</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.026919653450786</v>
       </c>
       <c r="H21">
-        <v>14.88823608366293</v>
-      </c>
-      <c r="J21">
-        <v>24.23220825765099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>15.05038082316989</v>
+      </c>
+      <c r="K21">
+        <v>24.11156110798235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.69650183274208</v>
+        <v>27.58894415739367</v>
       </c>
       <c r="C22">
-        <v>21.98277800427651</v>
+        <v>21.8479691384363</v>
       </c>
       <c r="D22">
-        <v>3.254348768280419</v>
+        <v>3.366801284685535</v>
       </c>
       <c r="F22">
-        <v>29.82593957053926</v>
+        <v>29.85176765090639</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.018964921330789</v>
       </c>
       <c r="H22">
-        <v>15.07576242437426</v>
-      </c>
-      <c r="J22">
-        <v>25.14731316288505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>15.21859552034527</v>
+      </c>
+      <c r="K22">
+        <v>25.02474068526089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.15723388890189</v>
+        <v>27.05098685274316</v>
       </c>
       <c r="C23">
-        <v>21.54159879021692</v>
+        <v>21.40843898891992</v>
       </c>
       <c r="D23">
-        <v>3.280571069643305</v>
+        <v>3.394468609825569</v>
       </c>
       <c r="F23">
-        <v>29.30386844569988</v>
+        <v>29.34335950148985</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.023209738805685</v>
       </c>
       <c r="H23">
-        <v>14.9715918003234</v>
-      </c>
-      <c r="J23">
-        <v>24.66170855044677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>15.12474471924981</v>
+      </c>
+      <c r="K23">
+        <v>24.54017477619975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.0422799730083</v>
+        <v>24.94090442872344</v>
       </c>
       <c r="C24">
-        <v>19.81742868137308</v>
+        <v>19.69045948210945</v>
       </c>
       <c r="D24">
-        <v>3.383373139203771</v>
+        <v>3.502388462600774</v>
       </c>
       <c r="F24">
-        <v>27.37351635641366</v>
+        <v>27.46829330035647</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.039325457573514</v>
       </c>
       <c r="H24">
-        <v>14.66363891719516</v>
-      </c>
-      <c r="J24">
-        <v>22.75978968455705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>14.85547468811273</v>
+      </c>
+      <c r="K24">
+        <v>22.64195203082938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.59854641502341</v>
+        <v>22.50228754328099</v>
       </c>
       <c r="C25">
-        <v>17.8363862863432</v>
+        <v>17.71606224155004</v>
       </c>
       <c r="D25">
-        <v>3.500508758670277</v>
+        <v>3.624499823827349</v>
       </c>
       <c r="F25">
-        <v>25.3891029175805</v>
+        <v>25.55090968619587</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.056921222025429</v>
       </c>
       <c r="H25">
-        <v>14.49593577977338</v>
-      </c>
-      <c r="J25">
-        <v>20.56735221736491</v>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>14.72800551214764</v>
+      </c>
+      <c r="K25">
+        <v>20.45301306072004</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,701 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.56001701962724</v>
+        <v>15.67021480188925</v>
       </c>
       <c r="C2">
-        <v>16.15120720304062</v>
+        <v>9.845377906387759</v>
       </c>
       <c r="D2">
-        <v>3.718672096033409</v>
+        <v>9.9787240921367</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>24.22921669529675</v>
+        <v>63.52954423055414</v>
       </c>
       <c r="G2">
-        <v>2.070173950153721</v>
+        <v>2.060596882327939</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.7526384058088</v>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.71341432368326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.74170351887689</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.91541178800276</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.14907472508754</v>
+        <v>14.49830319014273</v>
       </c>
       <c r="C3">
-        <v>15.01833959596092</v>
+        <v>9.14989029049041</v>
       </c>
       <c r="D3">
-        <v>3.784967745437932</v>
+        <v>9.481002672184854</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23.39041456466576</v>
+        <v>59.56402958541004</v>
       </c>
       <c r="G3">
-        <v>2.079390130863263</v>
+        <v>2.074547714974983</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.83234353756874</v>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.45195324885952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.76533137008264</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.54677334245852</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.23511616732288</v>
+        <v>13.74740043389019</v>
       </c>
       <c r="C4">
-        <v>14.28614753968813</v>
+        <v>8.706987208463156</v>
       </c>
       <c r="D4">
-        <v>3.826860643746955</v>
+        <v>9.169890474927053</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>22.90379249215765</v>
+        <v>57.05796287857219</v>
       </c>
       <c r="G4">
-        <v>2.085179159947092</v>
+        <v>2.083193272413093</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.90882631371913</v>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.63590955456731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.14050345436557</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.05097862250068</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.85056109906957</v>
+        <v>13.43326077480058</v>
       </c>
       <c r="C5">
-        <v>13.97844076495892</v>
+        <v>8.522330383712344</v>
       </c>
       <c r="D5">
-        <v>3.8442279646097</v>
+        <v>9.041684382395248</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>22.71267700895371</v>
+        <v>56.01861414717878</v>
       </c>
       <c r="G5">
-        <v>2.087572958666439</v>
+        <v>2.086743296139582</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.94640921751511</v>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>16.29282354456258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.87929354940393</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.42976989593655</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.78597091437602</v>
+        <v>13.38059936979338</v>
       </c>
       <c r="C6">
-        <v>13.92677901577748</v>
+        <v>8.491411564909257</v>
       </c>
       <c r="D6">
-        <v>3.847129600162081</v>
+        <v>9.020309202572518</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>22.68137736232573</v>
+        <v>55.84493685303327</v>
       </c>
       <c r="G6">
-        <v>2.087972599179909</v>
+        <v>2.087334582379308</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.95302275330308</v>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>16.23521479940844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.83551607457448</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.32588187619628</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.22997912382242</v>
+        <v>13.7431971214656</v>
       </c>
       <c r="C7">
-        <v>14.28203565005562</v>
+        <v>8.704513968111364</v>
       </c>
       <c r="D7">
-        <v>3.827093671006693</v>
+        <v>9.168167243891697</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>22.90118589924516</v>
+        <v>57.04401923721646</v>
       </c>
       <c r="G7">
-        <v>2.08521130046236</v>
+        <v>2.08324103199543</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.90930785444428</v>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.63132539160756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.13700762885535</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.04264949137818</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.08332928295881</v>
+        <v>15.27248059759077</v>
       </c>
       <c r="C8">
-        <v>15.76811332599631</v>
+        <v>9.608752518105684</v>
       </c>
       <c r="D8">
-        <v>3.741282118096168</v>
+        <v>9.808218739072609</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>23.93413348557089</v>
+        <v>62.17681525516186</v>
       </c>
       <c r="G8">
-        <v>2.073325885301425</v>
+        <v>2.065395015641051</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.77409160171187</v>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.28700923460902</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.41016887821153</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.10649231491832</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.34609407739161</v>
+        <v>18.03603398616442</v>
       </c>
       <c r="C9">
-        <v>18.39797308099526</v>
+        <v>11.26547832743242</v>
       </c>
       <c r="D9">
-        <v>3.582671239893069</v>
+        <v>11.02342829574664</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>26.18284360271445</v>
+        <v>71.70125752894455</v>
       </c>
       <c r="G9">
-        <v>2.05095501200597</v>
+        <v>2.030662323968053</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.7510783673317</v>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>21.20983511832269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.71716976444834</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.85578555013017</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.52607435364854</v>
+        <v>19.94475072847003</v>
       </c>
       <c r="C10">
-        <v>20.16595864719563</v>
+        <v>12.42732267599843</v>
       </c>
       <c r="D10">
-        <v>3.47260731717813</v>
+        <v>11.90080763305353</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>27.9688568484309</v>
+        <v>78.42854064232179</v>
       </c>
       <c r="G10">
-        <v>2.034940471023259</v>
+        <v>2.004662157803267</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.91472944849847</v>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.16798121881136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.31515721416706</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>39.05208425475081</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.47291252359062</v>
+        <v>20.79274062140743</v>
       </c>
       <c r="C11">
-        <v>20.93684519035394</v>
+        <v>12.94824294014334</v>
       </c>
       <c r="D11">
-        <v>3.424157948699606</v>
+        <v>12.29993728797815</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>28.81057491353935</v>
+        <v>81.45258464723022</v>
       </c>
       <c r="G11">
-        <v>2.027708852930537</v>
+        <v>1.992532361250245</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.03549804942406</v>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>24.01975591086031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.02628646135703</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.99902028171972</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.82521197893978</v>
+        <v>21.11157214289506</v>
       </c>
       <c r="C12">
-        <v>21.22416466411354</v>
+        <v>13.14486437601194</v>
       </c>
       <c r="D12">
-        <v>3.406071127113055</v>
+        <v>12.45149708862408</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>29.13359140032669</v>
+        <v>82.59527085709674</v>
       </c>
       <c r="G12">
-        <v>2.024974568104485</v>
+        <v>1.987872941014219</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.08846840813346</v>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>24.33688329796142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.2938465030282</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.74728551613721</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.74961244675504</v>
+        <v>21.04299600762332</v>
       </c>
       <c r="C13">
-        <v>21.16248637005236</v>
+        <v>13.10253863656674</v>
       </c>
       <c r="D13">
-        <v>3.409954368937901</v>
+        <v>12.41882903490311</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>29.06383202972796</v>
+        <v>82.34922733270209</v>
       </c>
       <c r="G13">
-        <v>2.025563320214545</v>
+        <v>1.988879812084132</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.07672932250042</v>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>24.26882217186068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.23628963136273</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.58553076256466</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.5020204041267</v>
+        <v>20.81901271529558</v>
       </c>
       <c r="C14">
-        <v>20.96057407188283</v>
+        <v>12.964428988816</v>
       </c>
       <c r="D14">
-        <v>3.422664541848457</v>
+        <v>12.31239487799232</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>28.83706334375597</v>
+        <v>81.54662396306054</v>
       </c>
       <c r="G14">
-        <v>2.027483839695195</v>
+        <v>1.992150509125557</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.0397076304632</v>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>24.04595368343387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.04832990756433</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>41.06032015638568</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.34955579428258</v>
+        <v>20.6815402731719</v>
       </c>
       <c r="C15">
-        <v>20.83630441606489</v>
+        <v>12.87976459558202</v>
       </c>
       <c r="D15">
-        <v>3.430484679081117</v>
+        <v>12.24727033458817</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>28.69872102254772</v>
+        <v>81.05478522105371</v>
       </c>
       <c r="G15">
-        <v>2.028660645166627</v>
+        <v>1.994144498482192</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.0179902928797</v>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>23.90874016272978</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17.93299208407145</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.74024878431477</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.46331062057898</v>
+        <v>19.88897540620301</v>
       </c>
       <c r="C16">
-        <v>20.11492448701663</v>
+        <v>12.39316300571402</v>
       </c>
       <c r="D16">
-        <v>3.475808313500889</v>
+        <v>11.87475603861808</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>27.91444175028832</v>
+        <v>78.23039765861722</v>
       </c>
       <c r="G16">
-        <v>2.035413858875684</v>
+        <v>2.005447002893152</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.9078186135281</v>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>23.11154653685355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>17.26840912919107</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.92603816983994</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.90827930100456</v>
+        <v>19.39797526402162</v>
       </c>
       <c r="C17">
-        <v>19.66396922028565</v>
+        <v>12.09299576759772</v>
       </c>
       <c r="D17">
-        <v>3.50404444117345</v>
+        <v>11.64648493753589</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>27.44083422303441</v>
+        <v>76.49012796198865</v>
       </c>
       <c r="G17">
-        <v>2.039568056100178</v>
+        <v>2.012289220460956</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.8525098197041</v>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>22.61263293687115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>16.8570137044075</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.82613223760528</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.58480581143104</v>
+        <v>19.11360994938498</v>
       </c>
       <c r="C18">
-        <v>19.4014367427727</v>
+        <v>11.91959946230855</v>
       </c>
       <c r="D18">
-        <v>3.520435482464825</v>
+        <v>11.51515792495907</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>27.1711734361299</v>
+        <v>75.48555030365077</v>
       </c>
       <c r="G18">
-        <v>2.041962707169537</v>
+        <v>2.016197915320222</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.82502381443457</v>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>22.32198832154414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>16.61886417682522</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.1966485538134</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.47455019060137</v>
+        <v>19.01697575241956</v>
       </c>
       <c r="C19">
-        <v>19.31200007851142</v>
+        <v>11.86074956136881</v>
       </c>
       <c r="D19">
-        <v>3.526010335702952</v>
+        <v>11.47067701767854</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>27.08034139108254</v>
+        <v>75.14472638914521</v>
       </c>
       <c r="G19">
-        <v>2.042774500097817</v>
+        <v>2.017517319914612</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.8164428023074</v>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>22.22294317171357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>16.53795402031407</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.98392157719654</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.96780015229598</v>
+        <v>19.4504412339178</v>
       </c>
       <c r="C20">
-        <v>19.71229930685126</v>
+        <v>12.12502349727809</v>
       </c>
       <c r="D20">
-        <v>3.501022923995704</v>
+        <v>11.67078548700615</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>27.49096607454545</v>
+        <v>76.67574034233247</v>
       </c>
       <c r="G20">
-        <v>2.039125313821375</v>
+        <v>2.011563767888021</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.85794558298462</v>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>22.66612299876667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>16.90096178239547</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.94285929034821</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.57491205064572</v>
+        <v>20.8848582602749</v>
       </c>
       <c r="C21">
-        <v>21.02000370514815</v>
+        <v>13.00500841570008</v>
       </c>
       <c r="D21">
-        <v>3.418923945736771</v>
+        <v>12.34364172123549</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>28.90355387280793</v>
+        <v>81.78240769840085</v>
       </c>
       <c r="G21">
-        <v>2.026919653450786</v>
+        <v>1.991191837774494</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.05038082316989</v>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>24.11156110798235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>18.10358024461877</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>41.21423316930431</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.58894415739367</v>
+        <v>21.80942707552388</v>
       </c>
       <c r="C22">
-        <v>21.8479691384363</v>
+        <v>13.57668404418071</v>
       </c>
       <c r="D22">
-        <v>3.366801284685535</v>
+        <v>12.78614998656568</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>29.85176765090639</v>
+        <v>85.10769728310345</v>
       </c>
       <c r="G22">
-        <v>2.018964921330789</v>
+        <v>1.977475639954596</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.21859552034527</v>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.02474068526089</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>18.87982732872225</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>43.42088544146313</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.05098685274316</v>
+        <v>21.31689908422492</v>
       </c>
       <c r="C23">
-        <v>21.40843898891992</v>
+        <v>13.27170934725434</v>
       </c>
       <c r="D23">
-        <v>3.394468609825569</v>
+        <v>12.54954026625366</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>29.34335950148985</v>
+        <v>83.33285115266895</v>
       </c>
       <c r="G23">
-        <v>2.023209738805685</v>
+        <v>1.984842591248531</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.12474471924981</v>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>24.54017477619975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>18.46620787246639</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42.23438127953506</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.94090442872344</v>
+        <v>19.42672790232531</v>
       </c>
       <c r="C24">
-        <v>19.69045948210945</v>
+        <v>12.11054636704629</v>
       </c>
       <c r="D24">
-        <v>3.502388462600774</v>
+        <v>11.65979952101077</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>27.46829330035647</v>
+        <v>76.59183786674036</v>
       </c>
       <c r="G24">
-        <v>2.039325457573514</v>
+        <v>2.011891821220398</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.85547468811273</v>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>22.64195203082938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>16.88109798160576</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.89007844360705</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.50228754328099</v>
+        <v>17.31157142673814</v>
       </c>
       <c r="C25">
-        <v>17.71606224155004</v>
+        <v>10.82829948064095</v>
       </c>
       <c r="D25">
-        <v>3.624499823827349</v>
+        <v>10.69824702787684</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>25.55090968619587</v>
+        <v>69.17786459853761</v>
       </c>
       <c r="G25">
-        <v>2.056921222025429</v>
+        <v>2.040088349752021</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.72800551214764</v>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20.45301306072004</v>
+        <v>15.11162477617072</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.3168575542532</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
@@ -421,22 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.67021480188925</v>
+        <v>13.93905917685943</v>
       </c>
       <c r="C2">
-        <v>9.845377906387759</v>
+        <v>7.996311054133394</v>
       </c>
       <c r="D2">
-        <v>9.9787240921367</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>5.726761338273919</v>
       </c>
       <c r="F2">
-        <v>63.52954423055414</v>
+        <v>15.20916328736071</v>
       </c>
       <c r="G2">
-        <v>2.060596882327939</v>
+        <v>2.093763505455143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -444,23 +441,14 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>13.74170351887689</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>29.91541178800276</v>
+        <v>12.44480805760726</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.69203978517751</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.49830319014273</v>
+        <v>13.05541057321047</v>
       </c>
       <c r="C3">
-        <v>9.14989029049041</v>
+        <v>7.665554716526825</v>
       </c>
       <c r="D3">
-        <v>9.481002672184854</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>5.495548520253892</v>
       </c>
       <c r="F3">
-        <v>59.56402958541004</v>
+        <v>15.27680152828539</v>
       </c>
       <c r="G3">
-        <v>2.074547714974983</v>
+        <v>2.098029023959358</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,23 +476,14 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>12.76533137008264</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>27.54677334245852</v>
+        <v>11.76566746728293</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.96216674647065</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.74740043389019</v>
+        <v>12.48152469142736</v>
       </c>
       <c r="C4">
-        <v>8.706987208463156</v>
+        <v>7.45524105063746</v>
       </c>
       <c r="D4">
-        <v>9.169890474927053</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>5.348147677334745</v>
       </c>
       <c r="F4">
-        <v>57.05796287857219</v>
+        <v>15.33888769635412</v>
       </c>
       <c r="G4">
-        <v>2.083193272413093</v>
+        <v>2.100728296421677</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -538,23 +511,14 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>12.14050345436557</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>26.05097862250068</v>
+        <v>11.32775419917317</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.14062548942961</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.43326077480058</v>
+        <v>12.23978472075609</v>
       </c>
       <c r="C5">
-        <v>8.522330383712344</v>
+        <v>7.367806278587883</v>
       </c>
       <c r="D5">
-        <v>9.041684382395248</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>5.286767283313012</v>
       </c>
       <c r="F5">
-        <v>56.01861414717878</v>
+        <v>15.36911200266838</v>
       </c>
       <c r="G5">
-        <v>2.086743296139582</v>
+        <v>2.101848865128663</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -585,23 +546,14 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>11.87929354940393</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>25.42976989593655</v>
+        <v>11.14412321854481</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.21637434970485</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.38059936979338</v>
+        <v>12.19916842242969</v>
       </c>
       <c r="C6">
-        <v>8.491411564909257</v>
+        <v>7.353186095504909</v>
       </c>
       <c r="D6">
-        <v>9.020309202572518</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>5.276497502624603</v>
       </c>
       <c r="F6">
-        <v>55.84493685303327</v>
+        <v>15.37442092869627</v>
       </c>
       <c r="G6">
-        <v>2.087334582379308</v>
+        <v>2.102036190448779</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -632,23 +581,14 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>11.83551607457448</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>25.32588187619628</v>
+        <v>11.11332153352178</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.22913121617066</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.7431971214656</v>
+        <v>12.4782963883297</v>
       </c>
       <c r="C7">
-        <v>8.704513968111364</v>
+        <v>7.454068755928408</v>
       </c>
       <c r="D7">
-        <v>9.168167243891697</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>5.347325121472819</v>
       </c>
       <c r="F7">
-        <v>57.04401923721646</v>
+        <v>15.33927570041318</v>
       </c>
       <c r="G7">
-        <v>2.08324103199543</v>
+        <v>2.100743324878331</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -679,23 +616,14 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>12.13700762885535</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>26.04264949137818</v>
+        <v>11.32529852799016</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.14163499333841</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27248059759077</v>
+        <v>13.64087461633229</v>
       </c>
       <c r="C8">
-        <v>9.608752518105684</v>
+        <v>7.883814973256229</v>
       </c>
       <c r="D8">
-        <v>9.808218739072609</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>5.648196938913546</v>
       </c>
       <c r="F8">
-        <v>62.17681525516186</v>
+        <v>15.22807138606259</v>
       </c>
       <c r="G8">
-        <v>2.065395015641051</v>
+        <v>2.095217863455268</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -726,23 +651,14 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>13.41016887821153</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>29.10649231491832</v>
+        <v>12.21502499530774</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.78247402255684</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.03603398616442</v>
+        <v>15.67267849440552</v>
       </c>
       <c r="C9">
-        <v>11.26547832743242</v>
+        <v>8.665975770807231</v>
       </c>
       <c r="D9">
-        <v>11.02342829574664</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>6.193109193490792</v>
       </c>
       <c r="F9">
-        <v>71.70125752894455</v>
+        <v>15.18392042488719</v>
       </c>
       <c r="G9">
-        <v>2.030662323968053</v>
+        <v>2.084999039035548</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -773,23 +686,14 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>15.71716976444834</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>34.85578555013017</v>
+        <v>13.79117530435899</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.18534847737484</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.94475072847003</v>
+        <v>17.01552037036829</v>
       </c>
       <c r="C10">
-        <v>12.42732267599843</v>
+        <v>9.200177280979389</v>
       </c>
       <c r="D10">
-        <v>11.90080763305353</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>6.563802873291527</v>
       </c>
       <c r="F10">
-        <v>78.42854064232179</v>
+        <v>15.27183920619326</v>
       </c>
       <c r="G10">
-        <v>2.004662157803267</v>
+        <v>2.077837795082424</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -820,23 +721,14 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>17.31515721416706</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>39.05208425475081</v>
+        <v>14.84403456847687</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>11.82326727699833</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.79274062140743</v>
+        <v>17.59425035577274</v>
       </c>
       <c r="C11">
-        <v>12.94824294014334</v>
+        <v>9.433868702306633</v>
       </c>
       <c r="D11">
-        <v>12.29993728797815</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>6.725665286145406</v>
       </c>
       <c r="F11">
-        <v>81.45258464723022</v>
+        <v>15.34083842608543</v>
       </c>
       <c r="G11">
-        <v>1.992532361250245</v>
+        <v>2.074648345662764</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -867,23 +756,14 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>18.02628646135703</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>40.99902028171972</v>
+        <v>15.29994712036866</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>11.67806603971798</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.11157214289506</v>
+        <v>17.80881595881705</v>
       </c>
       <c r="C12">
-        <v>13.14486437601194</v>
+        <v>9.520986861382708</v>
       </c>
       <c r="D12">
-        <v>12.45149708862408</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>6.785963654326688</v>
       </c>
       <c r="F12">
-        <v>82.59527085709674</v>
+        <v>15.37135399914274</v>
       </c>
       <c r="G12">
-        <v>1.987872941014219</v>
+        <v>2.073449801185594</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -914,23 +791,14 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>18.2938465030282</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>41.74728551613721</v>
+        <v>15.46926979108709</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>11.62615973899075</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.04299600762332</v>
+        <v>17.76280883468428</v>
       </c>
       <c r="C13">
-        <v>13.10253863656674</v>
+        <v>9.502286079388361</v>
       </c>
       <c r="D13">
-        <v>12.41882903490311</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>6.773021898764537</v>
       </c>
       <c r="F13">
-        <v>82.34922733270209</v>
+        <v>15.36458354516486</v>
       </c>
       <c r="G13">
-        <v>1.988879812084132</v>
+        <v>2.073707528275937</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -961,23 +826,14 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>18.23628963136273</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>41.58553076256466</v>
+        <v>15.43295089616853</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>11.63719716095244</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.81901271529558</v>
+        <v>17.61199451554732</v>
       </c>
       <c r="C14">
-        <v>12.964428988816</v>
+        <v>9.44106371417179</v>
       </c>
       <c r="D14">
-        <v>12.31239487799232</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>6.730646129864308</v>
       </c>
       <c r="F14">
-        <v>81.54662396306054</v>
+        <v>15.34325985842309</v>
       </c>
       <c r="G14">
-        <v>1.992150509125557</v>
+        <v>2.074549559143894</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1008,23 +861,14 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>18.04832990756433</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>41.06032015638568</v>
+        <v>15.31394398545397</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>11.67373232889887</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.6815402731719</v>
+        <v>17.5190201233057</v>
       </c>
       <c r="C15">
-        <v>12.87976459558202</v>
+        <v>9.403383161860541</v>
       </c>
       <c r="D15">
-        <v>12.24727033458817</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>6.704559534122261</v>
       </c>
       <c r="F15">
-        <v>81.05478522105371</v>
+        <v>15.33077594286282</v>
       </c>
       <c r="G15">
-        <v>1.994144498482192</v>
+        <v>2.075066511633798</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1055,23 +896,14 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>17.93299208407145</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>40.74024878431477</v>
+        <v>15.24061614798582</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>11.69652059474183</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.88897540620301</v>
+        <v>16.97705518651507</v>
       </c>
       <c r="C16">
-        <v>12.39316300571402</v>
+        <v>9.184714249853176</v>
       </c>
       <c r="D16">
-        <v>11.87475603861808</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>6.553086593630056</v>
       </c>
       <c r="F16">
-        <v>78.23039765861722</v>
+        <v>15.26793245001541</v>
       </c>
       <c r="G16">
-        <v>2.005447002893152</v>
+        <v>2.07804755726881</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1102,23 +931,14 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>17.26840912919107</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>38.92603816983994</v>
+        <v>14.81377508172255</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>11.83317183509057</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.39797526402162</v>
+        <v>16.63636961830453</v>
       </c>
       <c r="C17">
-        <v>12.09299576759772</v>
+        <v>9.048153251373863</v>
       </c>
       <c r="D17">
-        <v>11.64648493753589</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>6.458412150850763</v>
       </c>
       <c r="F17">
-        <v>76.49012796198865</v>
+        <v>15.23696773150927</v>
       </c>
       <c r="G17">
-        <v>2.012289220460956</v>
+        <v>2.079893406193099</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1149,23 +966,14 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>16.8570137044075</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>37.82613223760528</v>
+        <v>14.54601225939035</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>11.92218588532835</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.11360994938498</v>
+        <v>16.43738923233274</v>
       </c>
       <c r="C18">
-        <v>11.91959946230855</v>
+        <v>8.968731393591039</v>
       </c>
       <c r="D18">
-        <v>11.51515792495907</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>6.403321896602254</v>
       </c>
       <c r="F18">
-        <v>75.48555030365077</v>
+        <v>15.22187569788407</v>
       </c>
       <c r="G18">
-        <v>2.016197915320222</v>
+        <v>2.080961549205745</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1196,23 +1001,14 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>16.61886417682522</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>37.1966485538134</v>
+        <v>14.38983359129024</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>11.97520299645943</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.01697575241956</v>
+        <v>16.36949701648782</v>
       </c>
       <c r="C19">
-        <v>11.86074956136881</v>
+        <v>8.941691344006651</v>
       </c>
       <c r="D19">
-        <v>11.47067701767854</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>6.384560797561191</v>
       </c>
       <c r="F19">
-        <v>75.14472638914521</v>
+        <v>15.21722576763019</v>
       </c>
       <c r="G19">
-        <v>2.017517319914612</v>
+        <v>2.08132433066764</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1243,23 +1036,14 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>16.53795402031407</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>36.98392157719654</v>
+        <v>14.3365821306003</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11.99345814779346</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.4504412339178</v>
+        <v>16.67294923250316</v>
       </c>
       <c r="C20">
-        <v>12.12502349727809</v>
+        <v>9.062781304018962</v>
       </c>
       <c r="D20">
-        <v>11.67078548700615</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>6.468556407570112</v>
       </c>
       <c r="F20">
-        <v>76.67574034233247</v>
+        <v>15.23998105154502</v>
       </c>
       <c r="G20">
-        <v>2.011563767888021</v>
+        <v>2.079696247989811</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1290,23 +1071,14 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>16.90096178239547</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>37.94285929034821</v>
+        <v>14.57474059825056</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>11.91252008080098</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.8848582602749</v>
+        <v>17.65641653199773</v>
       </c>
       <c r="C21">
-        <v>13.00500841570008</v>
+        <v>9.459083789724934</v>
       </c>
       <c r="D21">
-        <v>12.34364172123549</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>6.743120090161671</v>
       </c>
       <c r="F21">
-        <v>81.78240769840085</v>
+        <v>15.34940243837656</v>
       </c>
       <c r="G21">
-        <v>1.991191837774494</v>
+        <v>2.074301988554057</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1337,23 +1106,14 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>18.10358024461877</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>41.21423316930431</v>
+        <v>15.34898937110225</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.66291521794698</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.80942707552388</v>
+        <v>18.27245192343403</v>
       </c>
       <c r="C22">
-        <v>13.57668404418071</v>
+        <v>9.710060301195615</v>
       </c>
       <c r="D22">
-        <v>12.78614998656568</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>6.916754079860906</v>
       </c>
       <c r="F22">
-        <v>85.10769728310345</v>
+        <v>15.4465747727207</v>
       </c>
       <c r="G22">
-        <v>1.977475639954596</v>
+        <v>2.070830036858233</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1384,23 +1141,14 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>18.87982732872225</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>43.42088544146313</v>
+        <v>15.83564718103956</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.5178718492475</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.31689908422492</v>
+        <v>17.94609460419026</v>
       </c>
       <c r="C23">
-        <v>13.27170934725434</v>
+        <v>9.576854019945477</v>
       </c>
       <c r="D23">
-        <v>12.54954026625366</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>6.824620085523041</v>
       </c>
       <c r="F23">
-        <v>83.33285115266895</v>
+        <v>15.39229726457646</v>
       </c>
       <c r="G23">
-        <v>1.984842591248531</v>
+        <v>2.072678388161529</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1431,23 +1176,14 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>18.46620787246639</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>42.23438127953506</v>
+        <v>15.57768073473617</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.59353224155312</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.42672790232531</v>
+        <v>16.65642129622258</v>
       </c>
       <c r="C24">
-        <v>12.11054636704629</v>
+        <v>9.056170796575474</v>
       </c>
       <c r="D24">
-        <v>11.65979952101077</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>6.463972245171219</v>
       </c>
       <c r="F24">
-        <v>76.59183786674036</v>
+        <v>15.23861030513305</v>
       </c>
       <c r="G24">
-        <v>2.011891821220398</v>
+        <v>2.079785361553893</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1478,23 +1211,14 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>16.88109798160576</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>37.89007844360705</v>
+        <v>14.56175948716738</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>11.91688427469793</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.31157142673814</v>
+        <v>15.14946535175122</v>
       </c>
       <c r="C25">
-        <v>10.82829948064095</v>
+        <v>8.461268635750544</v>
       </c>
       <c r="D25">
-        <v>10.69824702787684</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>6.050770935806773</v>
       </c>
       <c r="F25">
-        <v>69.17786459853761</v>
+        <v>15.17573660981644</v>
       </c>
       <c r="G25">
-        <v>2.040088349752021</v>
+        <v>2.087700432301879</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1525,23 +1246,14 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>15.11162477617072</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>33.3168575542532</v>
+        <v>13.38313188524114</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.33432538979582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.93905917685943</v>
+        <v>9.585799285574021</v>
       </c>
       <c r="C2">
-        <v>7.996311054133394</v>
+        <v>6.052919136348852</v>
       </c>
       <c r="D2">
-        <v>5.726761338273919</v>
+        <v>5.140350700259295</v>
       </c>
       <c r="F2">
-        <v>15.20916328736071</v>
+        <v>22.99343795922984</v>
       </c>
       <c r="G2">
-        <v>2.093763505455143</v>
+        <v>3.631289647545587</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.44480805760726</v>
+        <v>8.748277762339706</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.69203978517751</v>
+        <v>20.81615355067752</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.05541057321047</v>
+        <v>9.22710090954077</v>
       </c>
       <c r="C3">
-        <v>7.665554716526825</v>
+        <v>5.905526012489007</v>
       </c>
       <c r="D3">
-        <v>5.495548520253892</v>
+        <v>5.049511274501914</v>
       </c>
       <c r="F3">
-        <v>15.27680152828539</v>
+        <v>23.11500552812116</v>
       </c>
       <c r="G3">
-        <v>2.098029023959358</v>
+        <v>3.632863501158389</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.76566746728293</v>
+        <v>8.482428706928285</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.96216674647065</v>
+        <v>20.94472770555297</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.48152469142736</v>
+        <v>9.000356393045212</v>
       </c>
       <c r="C4">
-        <v>7.45524105063746</v>
+        <v>5.812812410121122</v>
       </c>
       <c r="D4">
-        <v>5.348147677334745</v>
+        <v>4.992366650243148</v>
       </c>
       <c r="F4">
-        <v>15.33888769635412</v>
+        <v>23.19665884273515</v>
       </c>
       <c r="G4">
-        <v>2.100728296421677</v>
+        <v>3.633880717589925</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.32775419917317</v>
+        <v>8.315376989813808</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.14062548942961</v>
+        <v>21.02872304832767</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.23978472075609</v>
+        <v>8.906455150709579</v>
       </c>
       <c r="C5">
-        <v>7.367806278587883</v>
+        <v>5.774515290773207</v>
       </c>
       <c r="D5">
-        <v>5.286767283313012</v>
+        <v>4.968753515051983</v>
       </c>
       <c r="F5">
-        <v>15.36911200266838</v>
+        <v>23.23168983722331</v>
       </c>
       <c r="G5">
-        <v>2.101848865128663</v>
+        <v>3.634308070132878</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.14412321854481</v>
+        <v>8.246436616866392</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.21637434970485</v>
+        <v>21.06422124714605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.19916842242969</v>
+        <v>8.89077646249617</v>
       </c>
       <c r="C6">
-        <v>7.353186095504909</v>
+        <v>5.768126192381566</v>
       </c>
       <c r="D6">
-        <v>5.276497502624603</v>
+        <v>4.964813407295617</v>
       </c>
       <c r="F6">
-        <v>15.37442092869627</v>
+        <v>23.23761261932224</v>
       </c>
       <c r="G6">
-        <v>2.102036190448779</v>
+        <v>3.634379807643057</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.11332153352178</v>
+        <v>8.234939768695579</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.22913121617066</v>
+        <v>21.07019235173682</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.4782963883297</v>
+        <v>8.999095897939542</v>
       </c>
       <c r="C7">
-        <v>7.454068755928408</v>
+        <v>5.812297953240582</v>
       </c>
       <c r="D7">
-        <v>5.347325121472819</v>
+        <v>4.99204949190119</v>
       </c>
       <c r="F7">
-        <v>15.33927570041318</v>
+        <v>23.19712417878986</v>
       </c>
       <c r="G7">
-        <v>2.100743324878331</v>
+        <v>3.633886429023054</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.32529852799016</v>
+        <v>8.314450609116015</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.14163499333841</v>
+        <v>21.02919665027817</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.64087461633229</v>
+        <v>9.463545647758167</v>
       </c>
       <c r="C8">
-        <v>7.883814973256229</v>
+        <v>6.002581283593257</v>
       </c>
       <c r="D8">
-        <v>5.648196938913546</v>
+        <v>5.109323922641497</v>
       </c>
       <c r="F8">
-        <v>15.22807138606259</v>
+        <v>23.03389575763491</v>
       </c>
       <c r="G8">
-        <v>2.095217863455268</v>
+        <v>3.631821778636927</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.21502499530774</v>
+        <v>8.657460396242895</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.78247402255684</v>
+        <v>20.85943740514601</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.67267849440552</v>
+        <v>10.31755951536235</v>
       </c>
       <c r="C9">
-        <v>8.665975770807231</v>
+        <v>6.356487836308763</v>
       </c>
       <c r="D9">
-        <v>6.193109193490792</v>
+        <v>5.327687516161469</v>
       </c>
       <c r="F9">
-        <v>15.18392042488719</v>
+        <v>22.76970293034221</v>
       </c>
       <c r="G9">
-        <v>2.084999039035548</v>
+        <v>3.628174828694172</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.79117530435899</v>
+        <v>9.296001445383439</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.18534847737484</v>
+        <v>20.56663584046713</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.01552037036829</v>
+        <v>10.904393935911</v>
       </c>
       <c r="C10">
-        <v>9.200177280979389</v>
+        <v>6.602718132828721</v>
       </c>
       <c r="D10">
-        <v>6.563802873291527</v>
+        <v>5.480094874637849</v>
       </c>
       <c r="F10">
-        <v>15.27183920619326</v>
+        <v>22.61004608384752</v>
       </c>
       <c r="G10">
-        <v>2.077837795082424</v>
+        <v>3.6257379063093</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.84403456847687</v>
+        <v>9.739791189059028</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.82326727699833</v>
+        <v>20.37599211712091</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.59425035577274</v>
+        <v>11.16151861123867</v>
       </c>
       <c r="C11">
-        <v>9.433868702306633</v>
+        <v>6.711359213201984</v>
       </c>
       <c r="D11">
-        <v>6.725665286145406</v>
+        <v>5.547503205071474</v>
       </c>
       <c r="F11">
-        <v>15.34083842608543</v>
+        <v>22.54497076240323</v>
       </c>
       <c r="G11">
-        <v>2.074648345662764</v>
+        <v>3.624681416367319</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.29994712036866</v>
+        <v>9.935360752922893</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.67806603971798</v>
+        <v>20.29458755421815</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.80881595881705</v>
+        <v>11.25740077837856</v>
       </c>
       <c r="C12">
-        <v>9.520986861382708</v>
+        <v>6.751985683282265</v>
       </c>
       <c r="D12">
-        <v>6.785963654326688</v>
+        <v>5.572738332822288</v>
       </c>
       <c r="F12">
-        <v>15.37135399914274</v>
+        <v>22.52142084371097</v>
       </c>
       <c r="G12">
-        <v>2.073449801185594</v>
+        <v>3.624288800316794</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.46926979108709</v>
+        <v>10.00845114535198</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.62615973899075</v>
+        <v>20.26452790361934</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.76280883468428</v>
+        <v>11.23681794332717</v>
       </c>
       <c r="C13">
-        <v>9.502286079388361</v>
+        <v>6.743259319646075</v>
       </c>
       <c r="D13">
-        <v>6.773021898764537</v>
+        <v>5.567316657428739</v>
       </c>
       <c r="F13">
-        <v>15.36458354516486</v>
+        <v>22.52644403983907</v>
       </c>
       <c r="G13">
-        <v>2.073707528275937</v>
+        <v>3.624373026254874</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.43295089616853</v>
+        <v>9.992753737885341</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.63719716095244</v>
+        <v>20.27096767320847</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.61199451554732</v>
+        <v>11.16943704152595</v>
       </c>
       <c r="C14">
-        <v>9.44106371417179</v>
+        <v>6.714712026202927</v>
       </c>
       <c r="D14">
-        <v>6.730646129864308</v>
+        <v>5.549585224941239</v>
       </c>
       <c r="F14">
-        <v>15.34325985842309</v>
+        <v>22.54301136034193</v>
       </c>
       <c r="G14">
-        <v>2.074549559143894</v>
+        <v>3.624648966423166</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.31394398545397</v>
+        <v>9.941393654455414</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.67373232889887</v>
+        <v>20.29209915840667</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.5190201233057</v>
+        <v>11.12796888544442</v>
       </c>
       <c r="C15">
-        <v>9.403383161860541</v>
+        <v>6.697158290834622</v>
       </c>
       <c r="D15">
-        <v>6.704559534122261</v>
+        <v>5.53868590651822</v>
       </c>
       <c r="F15">
-        <v>15.33077594286282</v>
+        <v>22.55330181471689</v>
       </c>
       <c r="G15">
-        <v>2.075066511633798</v>
+        <v>3.624818957409093</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.24061614798582</v>
+        <v>9.909806451089064</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.69652059474183</v>
+        <v>20.30514266765031</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.97705518651507</v>
+        <v>10.88738607106633</v>
       </c>
       <c r="C16">
-        <v>9.184714249853176</v>
+        <v>6.595547834715826</v>
       </c>
       <c r="D16">
-        <v>6.553086593630056</v>
+        <v>5.475649636524007</v>
       </c>
       <c r="F16">
-        <v>15.26793245001541</v>
+        <v>22.61445146352715</v>
       </c>
       <c r="G16">
-        <v>2.07804755726881</v>
+        <v>3.625807995358079</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.81377508172255</v>
+        <v>9.726877970694826</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.83317183509057</v>
+        <v>20.38141927486575</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.63636961830453</v>
+        <v>10.73722447346061</v>
       </c>
       <c r="C17">
-        <v>9.048153251373863</v>
+        <v>6.532328518952299</v>
       </c>
       <c r="D17">
-        <v>6.458412150850763</v>
+        <v>5.436475926296702</v>
       </c>
       <c r="F17">
-        <v>15.23696773150927</v>
+        <v>22.65390408126339</v>
       </c>
       <c r="G17">
-        <v>2.079893406193099</v>
+        <v>3.626428051581951</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.54601225939035</v>
+        <v>9.612995824641027</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.92218588532835</v>
+        <v>20.42957613945354</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.43738923233274</v>
+        <v>10.64993396011513</v>
       </c>
       <c r="C18">
-        <v>8.968731393591039</v>
+        <v>6.495650774023987</v>
       </c>
       <c r="D18">
-        <v>6.403321896602254</v>
+        <v>5.413764094678656</v>
       </c>
       <c r="F18">
-        <v>15.22187569788407</v>
+        <v>22.67730676125004</v>
       </c>
       <c r="G18">
-        <v>2.080961549205745</v>
+        <v>3.626789595450978</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.38983359129024</v>
+        <v>9.546902800597202</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.97520299645943</v>
+        <v>20.45777536603111</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.36949701648782</v>
+        <v>10.6202229711732</v>
       </c>
       <c r="C19">
-        <v>8.941691344006651</v>
+        <v>6.483179026103833</v>
       </c>
       <c r="D19">
-        <v>6.384560797561191</v>
+        <v>5.406043773956708</v>
       </c>
       <c r="F19">
-        <v>15.21722576763019</v>
+        <v>22.68535234788154</v>
       </c>
       <c r="G19">
-        <v>2.08132433066764</v>
+        <v>3.626912851319508</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.3365821306003</v>
+        <v>9.524425258533075</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.99345814779346</v>
+        <v>20.4674090879517</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.67294923250316</v>
+        <v>10.75330535920092</v>
       </c>
       <c r="C20">
-        <v>9.062781304018962</v>
+        <v>6.539091210750174</v>
       </c>
       <c r="D20">
-        <v>6.468556407570112</v>
+        <v>5.440664787202441</v>
       </c>
       <c r="F20">
-        <v>15.23998105154502</v>
+        <v>22.64963069290194</v>
       </c>
       <c r="G20">
-        <v>2.079696247989811</v>
+        <v>3.626361538254508</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.57474059825056</v>
+        <v>9.625180396283959</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.91252008080098</v>
+        <v>20.42439793116649</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.65641653199773</v>
+        <v>11.18926928357971</v>
       </c>
       <c r="C21">
-        <v>9.459083789724934</v>
+        <v>6.723111213667695</v>
       </c>
       <c r="D21">
-        <v>6.743120090161671</v>
+        <v>5.554801383593237</v>
       </c>
       <c r="F21">
-        <v>15.34940243837656</v>
+        <v>22.53811543002463</v>
       </c>
       <c r="G21">
-        <v>2.074301988554057</v>
+        <v>3.624567714091905</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.34898937110225</v>
+        <v>9.956506059863502</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.66291521794698</v>
+        <v>20.28587151459462</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.27245192343403</v>
+        <v>11.46551230053642</v>
       </c>
       <c r="C22">
-        <v>9.710060301195615</v>
+        <v>6.840373921619479</v>
       </c>
       <c r="D22">
-        <v>6.916754079860906</v>
+        <v>5.627694317749397</v>
       </c>
       <c r="F22">
-        <v>15.4465747727207</v>
+        <v>22.47160573581369</v>
       </c>
       <c r="G22">
-        <v>2.070830036858233</v>
+        <v>3.623438776487264</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.83564718103956</v>
+        <v>10.16738359064646</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.5178718492475</v>
+        <v>20.19980493040195</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.94609460419026</v>
+        <v>11.31889215934111</v>
       </c>
       <c r="C23">
-        <v>9.576854019945477</v>
+        <v>6.7780724651698</v>
       </c>
       <c r="D23">
-        <v>6.824620085523041</v>
+        <v>5.58895026670851</v>
       </c>
       <c r="F23">
-        <v>15.39229726457646</v>
+        <v>22.50651805628799</v>
       </c>
       <c r="G23">
-        <v>2.072678388161529</v>
+        <v>3.624037349366653</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.57768073473617</v>
+        <v>10.05537055610886</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.59353224155312</v>
+        <v>20.24533091943227</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.65642129622258</v>
+        <v>10.74603817728736</v>
       </c>
       <c r="C24">
-        <v>9.056170796575474</v>
+        <v>6.53603483005801</v>
       </c>
       <c r="D24">
-        <v>6.463972245171219</v>
+        <v>5.43877159495808</v>
       </c>
       <c r="F24">
-        <v>15.23861030513305</v>
+        <v>22.65156044690402</v>
       </c>
       <c r="G24">
-        <v>2.079785361553893</v>
+        <v>3.626391593149515</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.56175948716738</v>
+        <v>9.619673680058733</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.91688427469793</v>
+        <v>20.42673740063881</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.14946535175122</v>
+        <v>10.09327233583639</v>
       </c>
       <c r="C25">
-        <v>8.461268635750544</v>
+        <v>6.263028974517336</v>
       </c>
       <c r="D25">
-        <v>6.050770935806773</v>
+        <v>5.269958356774416</v>
       </c>
       <c r="F25">
-        <v>15.17573660981644</v>
+        <v>22.83515140622717</v>
       </c>
       <c r="G25">
-        <v>2.087700432301879</v>
+        <v>3.629118663800774</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.38313188524114</v>
+        <v>9.12740904852742</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.33432538979582</v>
+        <v>20.64155071454348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.585799285574021</v>
+        <v>13.93905917685944</v>
       </c>
       <c r="C2">
-        <v>6.052919136348852</v>
+        <v>7.996311054133259</v>
       </c>
       <c r="D2">
-        <v>5.140350700259295</v>
+        <v>5.726761338273969</v>
       </c>
       <c r="F2">
-        <v>22.99343795922984</v>
+        <v>15.20916328736083</v>
       </c>
       <c r="G2">
-        <v>3.631289647545587</v>
+        <v>2.093763505454474</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.748277762339706</v>
+        <v>12.4448080576072</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.81615355067752</v>
+        <v>12.69203978517768</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,19 +456,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.22710090954077</v>
+        <v>13.05541057321053</v>
       </c>
       <c r="C3">
-        <v>5.905526012489007</v>
+        <v>7.665554716526866</v>
       </c>
       <c r="D3">
-        <v>5.049511274501914</v>
+        <v>5.495548520253871</v>
       </c>
       <c r="F3">
-        <v>23.11500552812116</v>
+        <v>15.27680152828527</v>
       </c>
       <c r="G3">
-        <v>3.632863501158389</v>
+        <v>2.098029023959493</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.482428706928285</v>
+        <v>11.76566746728296</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.94472770555297</v>
+        <v>12.96216674647052</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,19 +491,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.000356393045212</v>
+        <v>12.48152469142739</v>
       </c>
       <c r="C4">
-        <v>5.812812410121122</v>
+        <v>7.455241050637611</v>
       </c>
       <c r="D4">
-        <v>4.992366650243148</v>
+        <v>5.348147677334843</v>
       </c>
       <c r="F4">
-        <v>23.19665884273515</v>
+        <v>15.33888769635398</v>
       </c>
       <c r="G4">
-        <v>3.633880717589925</v>
+        <v>2.100728296421542</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.315376989813808</v>
+        <v>11.32775419917319</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.02872304832767</v>
+        <v>13.14062548942959</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.906455150709579</v>
+        <v>12.23978472075615</v>
       </c>
       <c r="C5">
-        <v>5.774515290773207</v>
+        <v>7.367806278587796</v>
       </c>
       <c r="D5">
-        <v>4.968753515051983</v>
+        <v>5.286767283312993</v>
       </c>
       <c r="F5">
-        <v>23.23168983722331</v>
+        <v>15.36911200266823</v>
       </c>
       <c r="G5">
-        <v>3.634308070132878</v>
+        <v>2.101848865128663</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.246436616866392</v>
+        <v>11.14412321854485</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.06422124714605</v>
+        <v>13.21637434970472</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.89077646249617</v>
+        <v>12.19916842242966</v>
       </c>
       <c r="C6">
-        <v>5.768126192381566</v>
+        <v>7.353186095505023</v>
       </c>
       <c r="D6">
-        <v>4.964813407295617</v>
+        <v>5.276497502624668</v>
       </c>
       <c r="F6">
-        <v>23.23761261932224</v>
+        <v>15.37442092869621</v>
       </c>
       <c r="G6">
-        <v>3.634379807643057</v>
+        <v>2.102036190448779</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.234939768695579</v>
+        <v>11.11332153352178</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.07019235173682</v>
+        <v>13.22913121617062</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,19 +596,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.999095897939542</v>
+        <v>12.47829638832977</v>
       </c>
       <c r="C7">
-        <v>5.812297953240582</v>
+        <v>7.45406875592842</v>
       </c>
       <c r="D7">
-        <v>4.99204949190119</v>
+        <v>5.347325121472976</v>
       </c>
       <c r="F7">
-        <v>23.19712417878986</v>
+        <v>15.33927570041284</v>
       </c>
       <c r="G7">
-        <v>3.633886429023054</v>
+        <v>2.100743324878198</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.314450609116015</v>
+        <v>11.32529852799022</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.02919665027817</v>
+        <v>13.14163499333815</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.463545647758167</v>
+        <v>13.64087461633234</v>
       </c>
       <c r="C8">
-        <v>6.002581283593257</v>
+        <v>7.883814973256245</v>
       </c>
       <c r="D8">
-        <v>5.109323922641497</v>
+        <v>5.648196938913427</v>
       </c>
       <c r="F8">
-        <v>23.03389575763491</v>
+        <v>15.22807138606249</v>
       </c>
       <c r="G8">
-        <v>3.631821778636927</v>
+        <v>2.0952178634554</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.657460396242895</v>
+        <v>12.21502499530782</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.85943740514601</v>
+        <v>12.7824740225567</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,19 +666,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.31755951536235</v>
+        <v>15.67267849440547</v>
       </c>
       <c r="C9">
-        <v>6.356487836308763</v>
+        <v>8.665975770807231</v>
       </c>
       <c r="D9">
-        <v>5.327687516161469</v>
+        <v>6.193109193490758</v>
       </c>
       <c r="F9">
-        <v>22.76970293034221</v>
+        <v>15.18392042488726</v>
       </c>
       <c r="G9">
-        <v>3.628174828694172</v>
+        <v>2.084999039035413</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.296001445383439</v>
+        <v>13.79117530435897</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.56663584046713</v>
+        <v>12.18534847737491</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.904393935911</v>
+        <v>17.01552037036831</v>
       </c>
       <c r="C10">
-        <v>6.602718132828721</v>
+        <v>9.200177280979419</v>
       </c>
       <c r="D10">
-        <v>5.480094874637849</v>
+        <v>6.563802873291465</v>
       </c>
       <c r="F10">
-        <v>22.61004608384752</v>
+        <v>15.27183920619326</v>
       </c>
       <c r="G10">
-        <v>3.6257379063093</v>
+        <v>2.077837795082424</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.739791189059028</v>
+        <v>14.84403456847688</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.37599211712091</v>
+        <v>11.82326727699831</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.16151861123867</v>
+        <v>17.59425035577276</v>
       </c>
       <c r="C11">
-        <v>6.711359213201984</v>
+        <v>9.433868702306718</v>
       </c>
       <c r="D11">
-        <v>5.547503205071474</v>
+        <v>6.725665286145301</v>
       </c>
       <c r="F11">
-        <v>22.54497076240323</v>
+        <v>15.34083842608545</v>
       </c>
       <c r="G11">
-        <v>3.624681416367319</v>
+        <v>2.07464834566303</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.935360752922893</v>
+        <v>15.2999471203687</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.29458755421815</v>
+        <v>11.67806603971796</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,19 +771,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.25740077837856</v>
+        <v>17.8088159588171</v>
       </c>
       <c r="C12">
-        <v>6.751985683282265</v>
+        <v>9.520986861382735</v>
       </c>
       <c r="D12">
-        <v>5.572738332822288</v>
+        <v>6.785963654326638</v>
       </c>
       <c r="F12">
-        <v>22.52142084371097</v>
+        <v>15.37135399914266</v>
       </c>
       <c r="G12">
-        <v>3.624288800316794</v>
+        <v>2.073449801185594</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.00845114535198</v>
+        <v>15.46926979108714</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.26452790361934</v>
+        <v>11.62615973899065</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.23681794332717</v>
+        <v>17.76280883468428</v>
       </c>
       <c r="C13">
-        <v>6.743259319646075</v>
+        <v>9.502286079388481</v>
       </c>
       <c r="D13">
-        <v>5.567316657428739</v>
+        <v>6.773021898764576</v>
       </c>
       <c r="F13">
-        <v>22.52644403983907</v>
+        <v>15.36458354516472</v>
       </c>
       <c r="G13">
-        <v>3.624373026254874</v>
+        <v>2.073707528275937</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.992753737885341</v>
+        <v>15.43295089616856</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.27096767320847</v>
+        <v>11.63719716095227</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,19 +841,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.16943704152595</v>
+        <v>17.61199451554726</v>
       </c>
       <c r="C14">
-        <v>6.714712026202927</v>
+        <v>9.44106371417187</v>
       </c>
       <c r="D14">
-        <v>5.549585224941239</v>
+        <v>6.730646129864389</v>
       </c>
       <c r="F14">
-        <v>22.54301136034193</v>
+        <v>15.34325985842317</v>
       </c>
       <c r="G14">
-        <v>3.624648966423166</v>
+        <v>2.074549559143892</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.941393654455414</v>
+        <v>15.31394398545397</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.29209915840667</v>
+        <v>11.673732328899</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,19 +876,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.12796888544442</v>
+        <v>17.51902012330576</v>
       </c>
       <c r="C15">
-        <v>6.697158290834622</v>
+        <v>9.40338316186044</v>
       </c>
       <c r="D15">
-        <v>5.53868590651822</v>
+        <v>6.704559534122239</v>
       </c>
       <c r="F15">
-        <v>22.55330181471689</v>
+        <v>15.3307759428628</v>
       </c>
       <c r="G15">
-        <v>3.624818957409093</v>
+        <v>2.075066511633398</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.909806451089064</v>
+        <v>15.24061614798585</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.30514266765031</v>
+        <v>11.69652059474176</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,19 +911,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.88738607106633</v>
+        <v>16.97705518651512</v>
       </c>
       <c r="C16">
-        <v>6.595547834715826</v>
+        <v>9.184714249853174</v>
       </c>
       <c r="D16">
-        <v>5.475649636524007</v>
+        <v>6.553086593630115</v>
       </c>
       <c r="F16">
-        <v>22.61445146352715</v>
+        <v>15.26793245001538</v>
       </c>
       <c r="G16">
-        <v>3.625807995358079</v>
+        <v>2.07804755726881</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.726877970694826</v>
+        <v>14.8137750817226</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.38141927486575</v>
+        <v>11.83317183509055</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,19 +946,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.73722447346061</v>
+        <v>16.63636961830444</v>
       </c>
       <c r="C17">
-        <v>6.532328518952299</v>
+        <v>9.048153251374094</v>
       </c>
       <c r="D17">
-        <v>5.436475926296702</v>
+        <v>6.458412150850696</v>
       </c>
       <c r="F17">
-        <v>22.65390408126339</v>
+        <v>15.23696773150945</v>
       </c>
       <c r="G17">
-        <v>3.626428051581951</v>
+        <v>2.079893406193366</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.612995824641027</v>
+        <v>14.54601225939035</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.42957613945354</v>
+        <v>11.92218588532847</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,19 +981,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.64993396011513</v>
+        <v>16.43738923233281</v>
       </c>
       <c r="C18">
-        <v>6.495650774023987</v>
+        <v>8.96873139359098</v>
       </c>
       <c r="D18">
-        <v>5.413764094678656</v>
+        <v>6.403321896602161</v>
       </c>
       <c r="F18">
-        <v>22.67730676125004</v>
+        <v>15.22187569788401</v>
       </c>
       <c r="G18">
-        <v>3.626789595450978</v>
+        <v>2.080961549205746</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.546902800597202</v>
+        <v>14.3898335912903</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.45777536603111</v>
+        <v>11.97520299645934</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,19 +1016,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.6202229711732</v>
+        <v>16.36949701648788</v>
       </c>
       <c r="C19">
-        <v>6.483179026103833</v>
+        <v>8.941691344006578</v>
       </c>
       <c r="D19">
-        <v>5.406043773956708</v>
+        <v>6.384560797561297</v>
       </c>
       <c r="F19">
-        <v>22.68535234788154</v>
+        <v>15.21722576763017</v>
       </c>
       <c r="G19">
-        <v>3.626912851319508</v>
+        <v>2.081324330667775</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.524425258533075</v>
+        <v>14.33658213060035</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.4674090879517</v>
+        <v>11.99345814779349</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,19 +1051,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.75330535920092</v>
+        <v>16.67294923250314</v>
       </c>
       <c r="C20">
-        <v>6.539091210750174</v>
+        <v>9.062781304018976</v>
       </c>
       <c r="D20">
-        <v>5.440664787202441</v>
+        <v>6.468556407570035</v>
       </c>
       <c r="F20">
-        <v>22.64963069290194</v>
+        <v>15.23998105154501</v>
       </c>
       <c r="G20">
-        <v>3.626361538254508</v>
+        <v>2.079696247989944</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.625180396283959</v>
+        <v>14.57474059825054</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.42439793116649</v>
+        <v>11.91252008080092</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,19 +1086,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.18926928357971</v>
+        <v>17.6564165319978</v>
       </c>
       <c r="C21">
-        <v>6.723111213667695</v>
+        <v>9.459083789724755</v>
       </c>
       <c r="D21">
-        <v>5.554801383593237</v>
+        <v>6.743120090161871</v>
       </c>
       <c r="F21">
-        <v>22.53811543002463</v>
+        <v>15.34940243837626</v>
       </c>
       <c r="G21">
-        <v>3.624567714091905</v>
+        <v>2.074301988553386</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.956506059863502</v>
+        <v>15.34898937110231</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.28587151459462</v>
+        <v>11.66291521794675</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,19 +1121,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.46551230053642</v>
+        <v>18.27245192343402</v>
       </c>
       <c r="C22">
-        <v>6.840373921619479</v>
+        <v>9.710060301195655</v>
       </c>
       <c r="D22">
-        <v>5.627694317749397</v>
+        <v>6.916754079861001</v>
       </c>
       <c r="F22">
-        <v>22.47160573581369</v>
+        <v>15.44657477272073</v>
       </c>
       <c r="G22">
-        <v>3.623438776487264</v>
+        <v>2.070830036858099</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.16738359064646</v>
+        <v>15.83564718103954</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.19980493040195</v>
+        <v>11.51787184924755</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.31889215934111</v>
+        <v>17.9460946041902</v>
       </c>
       <c r="C23">
-        <v>6.7780724651698</v>
+        <v>9.576854019945506</v>
       </c>
       <c r="D23">
-        <v>5.58895026670851</v>
+        <v>6.824620085523121</v>
       </c>
       <c r="F23">
-        <v>22.50651805628799</v>
+        <v>15.39229726457639</v>
       </c>
       <c r="G23">
-        <v>3.624037349366653</v>
+        <v>2.072678388161396</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.05537055610886</v>
+        <v>15.57768073473612</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.24533091943227</v>
+        <v>11.5935322415531</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,19 +1191,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.74603817728736</v>
+        <v>16.65642129622262</v>
       </c>
       <c r="C24">
-        <v>6.53603483005801</v>
+        <v>9.056170796575429</v>
       </c>
       <c r="D24">
-        <v>5.43877159495808</v>
+        <v>6.463972245171186</v>
       </c>
       <c r="F24">
-        <v>22.65156044690402</v>
+        <v>15.23861030513294</v>
       </c>
       <c r="G24">
-        <v>3.626391593149515</v>
+        <v>2.079785361553893</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.619673680058733</v>
+        <v>14.56175948716739</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.42673740063881</v>
+        <v>11.91688427469786</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.09327233583639</v>
+        <v>15.14946535175124</v>
       </c>
       <c r="C25">
-        <v>6.263028974517336</v>
+        <v>8.461268635750571</v>
       </c>
       <c r="D25">
-        <v>5.269958356774416</v>
+        <v>6.050770935806809</v>
       </c>
       <c r="F25">
-        <v>22.83515140622717</v>
+        <v>15.1757366098164</v>
       </c>
       <c r="G25">
-        <v>3.629118663800774</v>
+        <v>2.08770043230188</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.12740904852742</v>
+        <v>13.38313188524115</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.64155071454348</v>
+        <v>12.33432538979577</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.93905917685944</v>
+        <v>10.27104476688559</v>
       </c>
       <c r="C2">
-        <v>7.996311054133259</v>
+        <v>7.471104932007995</v>
       </c>
       <c r="D2">
-        <v>5.726761338273969</v>
+        <v>4.833208360212867</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>15.20916328736083</v>
+        <v>24.35290216394399</v>
       </c>
       <c r="G2">
-        <v>2.093763505454474</v>
+        <v>33.72437711937014</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.705874358276041</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.835599022027385</v>
+      </c>
+      <c r="J2">
+        <v>11.34337099805758</v>
       </c>
       <c r="K2">
-        <v>12.4448080576072</v>
+        <v>18.28144077163185</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>10.05777076935736</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.69203978517768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28.02232765900388</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.05541057321053</v>
+        <v>9.673921109139156</v>
       </c>
       <c r="C3">
-        <v>7.665554716526866</v>
+        <v>7.0636225187887</v>
       </c>
       <c r="D3">
-        <v>5.495548520253871</v>
+        <v>4.755233696717428</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.27680152828527</v>
+        <v>23.6406422001224</v>
       </c>
       <c r="G3">
-        <v>2.098029023959493</v>
+        <v>32.64407790842101</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.667992712590198</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.022870795805898</v>
+      </c>
+      <c r="J3">
+        <v>11.22827794986045</v>
       </c>
       <c r="K3">
-        <v>11.76566746728296</v>
+        <v>18.05429357679257</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9.55768382793473</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.96216674647052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.20154078236015</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.48152469142739</v>
+        <v>9.285776832802561</v>
       </c>
       <c r="C4">
-        <v>7.455241050637611</v>
+        <v>6.80466176477981</v>
       </c>
       <c r="D4">
-        <v>5.348147677334843</v>
+        <v>4.705783581265816</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>15.33888769635398</v>
+        <v>23.19836562921805</v>
       </c>
       <c r="G4">
-        <v>2.100728296421542</v>
+        <v>31.96880653082037</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.83000211372229</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.142465450488283</v>
+      </c>
+      <c r="J4">
+        <v>11.15899267978934</v>
       </c>
       <c r="K4">
-        <v>11.32775419917319</v>
+        <v>17.91439208798755</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>9.23610343490636</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.14062548942959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.02163825287526</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.23978472075615</v>
+        <v>9.120022236519926</v>
       </c>
       <c r="C5">
-        <v>7.367806278587796</v>
+        <v>6.704109182232408</v>
       </c>
       <c r="D5">
-        <v>5.286767283312993</v>
+        <v>4.686462335000288</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15.36911200266823</v>
+        <v>23.00112864418685</v>
       </c>
       <c r="G5">
-        <v>2.101848865128663</v>
+        <v>31.66221061451197</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.897312797128924</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.195304939599535</v>
+      </c>
+      <c r="J5">
+        <v>11.12581397561518</v>
       </c>
       <c r="K5">
-        <v>11.14412321854485</v>
+        <v>17.8449866410855</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>9.102672802170133</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.21637434970472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.52506491677931</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.19916842242966</v>
+        <v>9.089481920412593</v>
       </c>
       <c r="C6">
-        <v>7.353186095505023</v>
+        <v>6.69606443705527</v>
       </c>
       <c r="D6">
-        <v>5.276497502624668</v>
+        <v>4.684735244012089</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>15.37442092869621</v>
+        <v>22.9487876129467</v>
       </c>
       <c r="G6">
-        <v>2.102036190448779</v>
+        <v>31.57601538219457</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.908684510503058</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.207910125504231</v>
+      </c>
+      <c r="J6">
+        <v>11.11385457399987</v>
       </c>
       <c r="K6">
-        <v>11.11332153352178</v>
+        <v>17.81841797490659</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>9.081785202101587</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.22913121617062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.44148874861054</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.47829638832977</v>
+        <v>9.276361995175103</v>
       </c>
       <c r="C7">
-        <v>7.45406875592842</v>
+        <v>6.826839154250284</v>
       </c>
       <c r="D7">
-        <v>5.347325121472976</v>
+        <v>4.709650143584851</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>15.33927570041284</v>
+        <v>23.1428938057404</v>
       </c>
       <c r="G7">
-        <v>2.100743324878198</v>
+        <v>31.86976662690101</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.831233918846883</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.153160171526182</v>
+      </c>
+      <c r="J7">
+        <v>11.14094707985729</v>
       </c>
       <c r="K7">
-        <v>11.32529852799022</v>
+        <v>17.87256086043838</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>9.238317269984323</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.14163499333815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.01452983773179</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.64087461633234</v>
+        <v>10.06076007038745</v>
       </c>
       <c r="C8">
-        <v>7.883814973256245</v>
+        <v>7.361619456146004</v>
       </c>
       <c r="D8">
-        <v>5.648196938913427</v>
+        <v>4.812195201286513</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>15.22807138606249</v>
+        <v>24.04112349375533</v>
       </c>
       <c r="G8">
-        <v>2.0952178634554</v>
+        <v>33.2338913131808</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.620136951784345</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.912150257246886</v>
+      </c>
+      <c r="J8">
+        <v>11.28050641429291</v>
       </c>
       <c r="K8">
-        <v>12.21502499530782</v>
+        <v>18.15005410529381</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>9.893437196428271</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.7824740225567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.40675653873803</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.67267849440547</v>
+        <v>11.43921495490704</v>
       </c>
       <c r="C9">
-        <v>8.665975770807231</v>
+        <v>8.302206123731056</v>
       </c>
       <c r="D9">
-        <v>6.193109193490758</v>
+        <v>4.993118576022392</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>15.18392042488726</v>
+        <v>25.84474570650963</v>
       </c>
       <c r="G9">
-        <v>2.084999039035413</v>
+        <v>35.96232374465493</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.221036102916084</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.498468076611594</v>
+      </c>
+      <c r="J9">
+        <v>11.59591951953141</v>
       </c>
       <c r="K9">
-        <v>13.79117530435897</v>
+        <v>18.76150845665031</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>11.05431574561354</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.18534847737491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>31.60981176321064</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.01552037036831</v>
+        <v>12.45159788451212</v>
       </c>
       <c r="C10">
-        <v>9.200177280979419</v>
+        <v>9.003691668902968</v>
       </c>
       <c r="D10">
-        <v>6.563802873291465</v>
+        <v>5.144039772318405</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>15.27183920619326</v>
+        <v>26.87287761536791</v>
       </c>
       <c r="G10">
-        <v>2.077837795082424</v>
+        <v>37.42807522767526</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.585584103645275</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.797589964700502</v>
+      </c>
+      <c r="J10">
+        <v>11.74209050339004</v>
       </c>
       <c r="K10">
-        <v>14.84403456847688</v>
+        <v>19.01029049418365</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>11.91491384691685</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.82326727699831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.5193581914865</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.59425035577276</v>
+        <v>13.80207954731458</v>
       </c>
       <c r="C11">
-        <v>9.433868702306718</v>
+        <v>9.723121840908448</v>
       </c>
       <c r="D11">
-        <v>6.725665286145301</v>
+        <v>5.452224736544366</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>15.34083842608545</v>
+        <v>25.24910620014519</v>
       </c>
       <c r="G11">
-        <v>2.07464834566303</v>
+        <v>34.3796909818396</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.064570298880676</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.878622622045277</v>
+      </c>
+      <c r="J11">
+        <v>11.06605539690004</v>
       </c>
       <c r="K11">
-        <v>15.2999471203687</v>
+        <v>17.55449828756421</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>12.98335590789031</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.67806603971796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>26.83845787135978</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.8088159588171</v>
+        <v>14.75414005013233</v>
       </c>
       <c r="C12">
-        <v>9.520986861382735</v>
+        <v>10.17008794537727</v>
       </c>
       <c r="D12">
-        <v>6.785963654326638</v>
+        <v>5.704798045583162</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>15.37135399914266</v>
+        <v>23.72755180323974</v>
       </c>
       <c r="G12">
-        <v>2.073449801185594</v>
+        <v>31.62074982317215</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.162520214139048</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.893203014116457</v>
+      </c>
+      <c r="J12">
+        <v>10.49494806123284</v>
       </c>
       <c r="K12">
-        <v>15.46926979108714</v>
+        <v>16.3608457411576</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>13.71834402456601</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.62615973899065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>20.84828176546067</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.76280883468428</v>
+        <v>15.47510328350963</v>
       </c>
       <c r="C13">
-        <v>9.502286079388481</v>
+        <v>10.47320195921861</v>
       </c>
       <c r="D13">
-        <v>6.773021898764576</v>
+        <v>5.931405313235275</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>15.36458354516472</v>
+        <v>22.08979164029171</v>
       </c>
       <c r="G13">
-        <v>2.073707528275937</v>
+        <v>28.73380494481522</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.44903199795131</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.861716523272978</v>
+      </c>
+      <c r="J13">
+        <v>9.94199858847222</v>
       </c>
       <c r="K13">
-        <v>15.43295089616856</v>
+        <v>15.23757314640227</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>14.26219053430416</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.63719716095227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.85682546835467</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.61199451554726</v>
+        <v>15.88339417981945</v>
       </c>
       <c r="C14">
-        <v>9.44106371417187</v>
+        <v>10.63131161878541</v>
       </c>
       <c r="D14">
-        <v>6.730646129864389</v>
+        <v>6.081833267492784</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>15.34325985842317</v>
+        <v>20.86812992580882</v>
       </c>
       <c r="G14">
-        <v>2.074549559143892</v>
+        <v>26.6169635001359</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.497806875995052</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.821273074627396</v>
+      </c>
+      <c r="J14">
+        <v>9.562003662679462</v>
       </c>
       <c r="K14">
-        <v>15.31394398545397</v>
+        <v>14.48704820807954</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>14.56433901755747</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.673732328899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.64465123018065</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.51902012330576</v>
+        <v>15.93222901335291</v>
       </c>
       <c r="C15">
-        <v>9.40338316186044</v>
+        <v>10.64708320817773</v>
       </c>
       <c r="D15">
-        <v>6.704559534122239</v>
+        <v>6.112120180001228</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>15.3307759428628</v>
+        <v>20.52754512693097</v>
       </c>
       <c r="G15">
-        <v>2.075066511633398</v>
+        <v>26.04162045307874</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.73924878442944</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.80148498800937</v>
+      </c>
+      <c r="J15">
+        <v>9.467895972058365</v>
       </c>
       <c r="K15">
-        <v>15.24061614798585</v>
+        <v>14.30587627618623</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>14.59832712231727</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.69652059474176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.611073338932517</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.97705518651512</v>
+        <v>15.42455502674357</v>
       </c>
       <c r="C16">
-        <v>9.184714249853174</v>
+        <v>10.3325662222637</v>
       </c>
       <c r="D16">
-        <v>6.553086593630115</v>
+        <v>6.004249889619227</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>15.26793245001538</v>
+        <v>20.32103388729634</v>
       </c>
       <c r="G16">
-        <v>2.07804755726881</v>
+        <v>25.82244556384613</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.529717624955081</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.684387492773095</v>
+      </c>
+      <c r="J16">
+        <v>9.503303791746943</v>
       </c>
       <c r="K16">
-        <v>14.8137750817226</v>
+        <v>14.40118831111631</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>14.17126495231063</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.83317183509055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.539559580990689</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.63636961830444</v>
+        <v>14.79648175025696</v>
       </c>
       <c r="C17">
-        <v>9.048153251374094</v>
+        <v>9.997744392663225</v>
       </c>
       <c r="D17">
-        <v>6.458412150850696</v>
+        <v>5.838089394474136</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>15.23696773150945</v>
+        <v>20.8286880374582</v>
       </c>
       <c r="G17">
-        <v>2.079893406193366</v>
+        <v>26.80595098192964</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.778781291505072</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.615127894162819</v>
+      </c>
+      <c r="J17">
+        <v>9.731153905082286</v>
       </c>
       <c r="K17">
-        <v>14.54601225939035</v>
+        <v>14.8643277714082</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>13.66794074157767</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.92218588532847</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.80287528099654</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.43738923233281</v>
+        <v>14.00526668875466</v>
       </c>
       <c r="C18">
-        <v>8.96873139359098</v>
+        <v>9.594872375721808</v>
       </c>
       <c r="D18">
-        <v>6.403321896602161</v>
+        <v>5.607928399704538</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>15.22187569788401</v>
+        <v>22.04929666419005</v>
       </c>
       <c r="G18">
-        <v>2.080961549205746</v>
+        <v>29.01498364169988</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.477749576009819</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.580776662492943</v>
+      </c>
+      <c r="J18">
+        <v>10.16928742620825</v>
       </c>
       <c r="K18">
-        <v>14.3898335912903</v>
+        <v>15.75333361397494</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>13.04622572499053</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.97520299645934</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.50256574634019</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.36949701648788</v>
+        <v>13.1439433794165</v>
       </c>
       <c r="C19">
-        <v>8.941691344006578</v>
+        <v>9.220212743594542</v>
       </c>
       <c r="D19">
-        <v>6.384560797561297</v>
+        <v>5.374457950199958</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>15.21722576763017</v>
+        <v>23.66907040172644</v>
       </c>
       <c r="G19">
-        <v>2.081324330667775</v>
+        <v>31.90620640590833</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.058034512854138</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.595502312279009</v>
+      </c>
+      <c r="J19">
+        <v>10.72848132963407</v>
       </c>
       <c r="K19">
-        <v>14.33658213060035</v>
+        <v>16.90284432032108</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>12.39694846223037</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.99345814779349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>22.83061090609269</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.67294923250314</v>
+        <v>12.18070665869243</v>
       </c>
       <c r="C20">
-        <v>9.062781304018976</v>
+        <v>8.884130160591136</v>
       </c>
       <c r="D20">
-        <v>6.468556407570035</v>
+        <v>5.119590604062537</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>15.23998105154501</v>
+        <v>26.45116900802514</v>
       </c>
       <c r="G20">
-        <v>2.079696247989944</v>
+        <v>36.77352166146287</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.486445302485912</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.730011503112873</v>
+      </c>
+      <c r="J20">
+        <v>11.64824475303095</v>
       </c>
       <c r="K20">
-        <v>14.57474059825054</v>
+        <v>18.81870163617085</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>11.70856795842913</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.91252008080092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>32.98812196011215</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.6564165319978</v>
+        <v>12.76203674332809</v>
       </c>
       <c r="C21">
-        <v>9.459083789724755</v>
+        <v>9.326125015794164</v>
       </c>
       <c r="D21">
-        <v>6.743120090161871</v>
+        <v>5.193081397985043</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>15.34940243837626</v>
+        <v>27.62622559333438</v>
       </c>
       <c r="G21">
-        <v>2.074301988553386</v>
+        <v>38.58367775416774</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.851634922015403</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.965044820704418</v>
+      </c>
+      <c r="J21">
+        <v>11.90462880059056</v>
       </c>
       <c r="K21">
-        <v>15.34898937110231</v>
+        <v>19.31168225886147</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>12.21975483973963</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.66291521794675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35.7420330244969</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.27245192343402</v>
+        <v>13.18519831937023</v>
       </c>
       <c r="C22">
-        <v>9.710060301195655</v>
+        <v>9.607592163246141</v>
       </c>
       <c r="D22">
-        <v>6.916754079861001</v>
+        <v>5.246297339782542</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>15.44657477272073</v>
+        <v>28.31979338366343</v>
       </c>
       <c r="G22">
-        <v>2.070830036858099</v>
+        <v>39.63286528739889</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.057550030760022</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.109352403375566</v>
+      </c>
+      <c r="J22">
+        <v>12.05111845297687</v>
       </c>
       <c r="K22">
-        <v>15.83564718103954</v>
+        <v>19.58979020591242</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>12.57710234250445</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.51787184924755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37.03288083063925</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.9460946041902</v>
+        <v>12.96742471410452</v>
       </c>
       <c r="C23">
-        <v>9.576854019945506</v>
+        <v>9.436884416930019</v>
       </c>
       <c r="D23">
-        <v>6.824620085523121</v>
+        <v>5.212947255664758</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>15.39229726457639</v>
+        <v>28.00243268500381</v>
       </c>
       <c r="G23">
-        <v>2.072678388161396</v>
+        <v>39.16669243020201</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.948211582541728</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.028794104099265</v>
+      </c>
+      <c r="J23">
+        <v>11.99182148299952</v>
       </c>
       <c r="K23">
-        <v>15.57768073473612</v>
+        <v>19.48534822346375</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>12.38380760349027</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.5935322415531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36.34907636768656</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.65642129622262</v>
+        <v>12.09501568694013</v>
       </c>
       <c r="C24">
-        <v>9.056170796575429</v>
+        <v>8.80745233555705</v>
       </c>
       <c r="D24">
-        <v>6.463972245171186</v>
+        <v>5.091519910350108</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>15.23861030513294</v>
+        <v>26.70278521621544</v>
       </c>
       <c r="G24">
-        <v>2.079785361553893</v>
+        <v>37.22592403147264</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.528023341042133</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.72528384542761</v>
+      </c>
+      <c r="J24">
+        <v>11.74061388418664</v>
       </c>
       <c r="K24">
-        <v>14.56175948716739</v>
+        <v>19.0208672291322</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>11.63044035578843</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.91688427469786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>33.65500473300608</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.14946535175124</v>
+        <v>11.07366330402854</v>
       </c>
       <c r="C25">
-        <v>8.461268635750571</v>
+        <v>8.091897477162139</v>
       </c>
       <c r="D25">
-        <v>6.050770935806809</v>
+        <v>4.953265209320383</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>15.1757366098164</v>
+        <v>25.27594144786736</v>
       </c>
       <c r="G25">
-        <v>2.08770043230188</v>
+        <v>35.08191220520163</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.061444101370148</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.597046978323482</v>
+      </c>
+      <c r="J25">
+        <v>11.4789497160675</v>
       </c>
       <c r="K25">
-        <v>13.38313188524115</v>
+        <v>18.52601814483951</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>10.7594811749465</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.33432538979577</v>
+        <v>30.52392934691997</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.27104476688559</v>
+        <v>10.21501244592826</v>
       </c>
       <c r="C2">
-        <v>7.471104932007995</v>
+        <v>7.909974654614082</v>
       </c>
       <c r="D2">
-        <v>4.833208360212867</v>
+        <v>4.912940821507191</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.35290216394399</v>
+        <v>22.64385508662693</v>
       </c>
       <c r="G2">
-        <v>33.72437711937014</v>
+        <v>30.25748717250581</v>
       </c>
       <c r="H2">
-        <v>1.705874358276041</v>
+        <v>1.726293402420379</v>
       </c>
       <c r="I2">
-        <v>2.835599022027385</v>
+        <v>2.716592667090823</v>
       </c>
       <c r="J2">
-        <v>11.34337099805758</v>
+        <v>11.03824152692984</v>
       </c>
       <c r="K2">
-        <v>18.28144077163185</v>
+        <v>16.78438240629525</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.97402437296813</v>
       </c>
       <c r="M2">
-        <v>10.05777076935736</v>
+        <v>10.95379624433176</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.02232765900388</v>
+        <v>10.21106762179717</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.052103037963</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.673921109139156</v>
+        <v>9.662476754430163</v>
       </c>
       <c r="C3">
-        <v>7.0636225187887</v>
+        <v>7.394774279341107</v>
       </c>
       <c r="D3">
-        <v>4.755233696717428</v>
+        <v>4.796755434558063</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.6406422001224</v>
+        <v>22.11226239245281</v>
       </c>
       <c r="G3">
-        <v>32.64407790842101</v>
+        <v>29.53227101692395</v>
       </c>
       <c r="H3">
-        <v>1.667992712590198</v>
+        <v>1.642229982740774</v>
       </c>
       <c r="I3">
-        <v>3.022870795805898</v>
+        <v>2.877420700838866</v>
       </c>
       <c r="J3">
-        <v>11.22827794986045</v>
+        <v>10.94763411324351</v>
       </c>
       <c r="K3">
-        <v>18.05429357679257</v>
+        <v>16.69893264021814</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.03074659453243</v>
       </c>
       <c r="M3">
-        <v>9.55768382793473</v>
+        <v>10.77174974959053</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.20154078236015</v>
+        <v>9.703755227592351</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>26.23856686273414</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.285776832802561</v>
+        <v>9.303821335042198</v>
       </c>
       <c r="C4">
-        <v>6.80466176477981</v>
+        <v>7.065594595192631</v>
       </c>
       <c r="D4">
-        <v>4.705783581265816</v>
+        <v>4.723685177784775</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.19836562921805</v>
+        <v>21.78289545636604</v>
       </c>
       <c r="G4">
-        <v>31.96880653082037</v>
+        <v>29.08394699093606</v>
       </c>
       <c r="H4">
-        <v>1.83000211372229</v>
+        <v>1.80121950252419</v>
       </c>
       <c r="I4">
-        <v>3.142465450488283</v>
+        <v>2.980542676689265</v>
       </c>
       <c r="J4">
-        <v>11.15899267978934</v>
+        <v>10.89124144994994</v>
       </c>
       <c r="K4">
-        <v>17.91439208798755</v>
+        <v>16.64588791838796</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.06223897771621</v>
       </c>
       <c r="M4">
-        <v>9.23610343490636</v>
+        <v>10.67620729480953</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.02163825287526</v>
+        <v>9.37765016474455</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.06336874167948</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.120022236519926</v>
+        <v>9.150831045783047</v>
       </c>
       <c r="C5">
-        <v>6.704109182232408</v>
+        <v>6.935902141106844</v>
       </c>
       <c r="D5">
-        <v>4.686462335000288</v>
+        <v>4.694959435971096</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.00112864418685</v>
+        <v>21.63362902315109</v>
       </c>
       <c r="G5">
-        <v>31.66221061451197</v>
+        <v>28.87465788705038</v>
       </c>
       <c r="H5">
-        <v>1.897312797128924</v>
+        <v>1.867276173503198</v>
       </c>
       <c r="I5">
-        <v>3.195304939599535</v>
+        <v>3.027077020654505</v>
       </c>
       <c r="J5">
-        <v>11.12581397561518</v>
+        <v>10.86336894987233</v>
       </c>
       <c r="K5">
-        <v>17.8449866410855</v>
+        <v>16.61348866947813</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.06520680356293</v>
       </c>
       <c r="M5">
-        <v>9.102672802170133</v>
+        <v>10.63444500951536</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.52506491677931</v>
+        <v>9.242305174683036</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.56880011040658</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.089481920412593</v>
+        <v>9.122684423132156</v>
       </c>
       <c r="C6">
-        <v>6.69606443705527</v>
+        <v>6.923547953640965</v>
       </c>
       <c r="D6">
-        <v>4.684735244012089</v>
+        <v>4.691971985690365</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.9487876129467</v>
+        <v>21.59119080681027</v>
       </c>
       <c r="G6">
-        <v>31.57601538219457</v>
+        <v>28.80816175277113</v>
       </c>
       <c r="H6">
-        <v>1.908684510503058</v>
+        <v>1.878427152791674</v>
       </c>
       <c r="I6">
-        <v>3.207910125504231</v>
+        <v>3.039256192298833</v>
       </c>
       <c r="J6">
-        <v>11.11385457399987</v>
+        <v>10.85297865690112</v>
       </c>
       <c r="K6">
-        <v>17.81841797490659</v>
+        <v>16.59512510234435</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.05464000829121</v>
       </c>
       <c r="M6">
-        <v>9.081785202101587</v>
+        <v>10.61916122989109</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.44148874861054</v>
+        <v>9.221021632518323</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.48557703155425</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.276361995175103</v>
+        <v>9.296279921820354</v>
       </c>
       <c r="C7">
-        <v>6.826839154250284</v>
+        <v>7.081064889277705</v>
       </c>
       <c r="D7">
-        <v>4.709650143584851</v>
+        <v>4.731363576324427</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.1428938057404</v>
+        <v>21.70491352078648</v>
       </c>
       <c r="G7">
-        <v>31.86976662690101</v>
+        <v>29.05633137388473</v>
       </c>
       <c r="H7">
-        <v>1.831233918846883</v>
+        <v>1.80256413015437</v>
       </c>
       <c r="I7">
-        <v>3.153160171526182</v>
+        <v>2.993491388687832</v>
       </c>
       <c r="J7">
-        <v>11.14094707985729</v>
+        <v>10.82638843583906</v>
       </c>
       <c r="K7">
-        <v>17.87256086043838</v>
+        <v>16.5942871264215</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.01956011713398</v>
       </c>
       <c r="M7">
-        <v>9.238317269984323</v>
+        <v>10.64079642964431</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.01452983773179</v>
+        <v>9.37764480388446</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.05609390903948</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.06076007038745</v>
+        <v>10.02384334128761</v>
       </c>
       <c r="C8">
-        <v>7.361619456146004</v>
+        <v>7.741669628835914</v>
       </c>
       <c r="D8">
-        <v>4.812195201286513</v>
+        <v>4.890374878807914</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.04112349375533</v>
+        <v>22.30967269163643</v>
       </c>
       <c r="G8">
-        <v>33.2338913131808</v>
+        <v>30.09651544027112</v>
       </c>
       <c r="H8">
-        <v>1.620136951784345</v>
+        <v>1.64172765095929</v>
       </c>
       <c r="I8">
-        <v>2.912150257246886</v>
+        <v>2.788333980794144</v>
       </c>
       <c r="J8">
-        <v>11.28050641429291</v>
+        <v>10.82822084271116</v>
       </c>
       <c r="K8">
-        <v>18.15005410529381</v>
+        <v>16.65766483223464</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.91704565806308</v>
       </c>
       <c r="M8">
-        <v>9.893437196428271</v>
+        <v>10.8164771488119</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.40675653873803</v>
+        <v>10.03788044760435</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>27.43832578364815</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.43921495490704</v>
+        <v>11.30183314776036</v>
       </c>
       <c r="C9">
-        <v>8.302206123731056</v>
+        <v>8.922951825656888</v>
       </c>
       <c r="D9">
-        <v>4.993118576022392</v>
+        <v>5.167144465581214</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.84474570650963</v>
+        <v>23.65346783310982</v>
       </c>
       <c r="G9">
-        <v>35.96232374465493</v>
+        <v>32.02744632353068</v>
       </c>
       <c r="H9">
-        <v>2.221036102916084</v>
+        <v>2.230916949891322</v>
       </c>
       <c r="I9">
-        <v>2.498468076611594</v>
+        <v>2.564845239423249</v>
       </c>
       <c r="J9">
-        <v>11.59591951953141</v>
+        <v>11.02899675863207</v>
       </c>
       <c r="K9">
-        <v>18.76150845665031</v>
+        <v>16.89765630252862</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.78593565035832</v>
       </c>
       <c r="M9">
-        <v>11.05431574561354</v>
+        <v>11.36985168523224</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.60981176321064</v>
+        <v>11.21508324097241</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>31.62408864738913</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.45159788451212</v>
+        <v>12.25824760398323</v>
       </c>
       <c r="C10">
-        <v>9.003691668902968</v>
+        <v>9.736527487082038</v>
       </c>
       <c r="D10">
-        <v>5.144039772318405</v>
+        <v>5.408216815152621</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.87287761536791</v>
+        <v>24.25936959086753</v>
       </c>
       <c r="G10">
-        <v>37.42807522767526</v>
+        <v>33.35251595727616</v>
       </c>
       <c r="H10">
-        <v>2.585584103645275</v>
+        <v>2.586506506469435</v>
       </c>
       <c r="I10">
-        <v>2.797589964700502</v>
+        <v>2.820385273491769</v>
       </c>
       <c r="J10">
-        <v>11.74209050339004</v>
+        <v>10.83904654112564</v>
       </c>
       <c r="K10">
-        <v>19.01029049418365</v>
+        <v>16.83429947826658</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.50512165862194</v>
       </c>
       <c r="M10">
-        <v>11.91491384691685</v>
+        <v>11.64716360576667</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.5193581914865</v>
+        <v>12.07602108021188</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>33.52069219920787</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.80207954731458</v>
+        <v>13.62740518300448</v>
       </c>
       <c r="C11">
-        <v>9.723121840908448</v>
+        <v>10.35189307575271</v>
       </c>
       <c r="D11">
-        <v>5.452224736544366</v>
+        <v>5.807752445716053</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.24910620014519</v>
+        <v>22.54947105204164</v>
       </c>
       <c r="G11">
-        <v>34.3796909818396</v>
+        <v>31.36606508387468</v>
       </c>
       <c r="H11">
-        <v>3.064570298880676</v>
+        <v>3.063174604852569</v>
       </c>
       <c r="I11">
-        <v>2.878622622045277</v>
+        <v>2.889971333880431</v>
       </c>
       <c r="J11">
-        <v>11.06605539690004</v>
+        <v>9.795232418539943</v>
       </c>
       <c r="K11">
-        <v>17.55449828756421</v>
+        <v>15.46562140692476</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.45842745656052</v>
       </c>
       <c r="M11">
-        <v>12.98335590789031</v>
+        <v>10.66696980175776</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.83845787135978</v>
+        <v>13.11659354298449</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>26.83572572195969</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.75414005013233</v>
+        <v>14.60337893575778</v>
       </c>
       <c r="C12">
-        <v>10.17008794537727</v>
+        <v>10.69862749048975</v>
       </c>
       <c r="D12">
-        <v>5.704798045583162</v>
+        <v>6.096726880500402</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.72755180323974</v>
+        <v>21.12616168422738</v>
       </c>
       <c r="G12">
-        <v>31.62074982317215</v>
+        <v>29.31405750233023</v>
       </c>
       <c r="H12">
-        <v>4.162520214139048</v>
+        <v>4.16137939437279</v>
       </c>
       <c r="I12">
-        <v>2.893203014116457</v>
+        <v>2.90186094815878</v>
       </c>
       <c r="J12">
-        <v>10.49494806123284</v>
+        <v>9.186143230336178</v>
       </c>
       <c r="K12">
-        <v>16.3608457411576</v>
+        <v>14.46741659102828</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.76306288406795</v>
       </c>
       <c r="M12">
-        <v>13.71834402456601</v>
+        <v>9.869386579398856</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.84828176546067</v>
+        <v>13.83009807234025</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>20.84473768203181</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.47510328350963</v>
+        <v>15.35036699054587</v>
       </c>
       <c r="C13">
-        <v>10.47320195921861</v>
+        <v>10.9161270767262</v>
       </c>
       <c r="D13">
-        <v>5.931405313235275</v>
+        <v>6.307620002278935</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.08979164029171</v>
+        <v>19.80483837283197</v>
       </c>
       <c r="G13">
-        <v>28.73380494481522</v>
+        <v>26.78623478470311</v>
       </c>
       <c r="H13">
-        <v>5.44903199795131</v>
+        <v>5.449283192273932</v>
       </c>
       <c r="I13">
-        <v>2.861716523272978</v>
+        <v>2.876944181793554</v>
       </c>
       <c r="J13">
-        <v>9.94199858847222</v>
+        <v>8.884949430679731</v>
       </c>
       <c r="K13">
-        <v>15.23757314640227</v>
+        <v>13.66593542247081</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.25333565393642</v>
       </c>
       <c r="M13">
-        <v>14.26219053430416</v>
+        <v>9.153147628413139</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.85682546835467</v>
+        <v>14.35969685002514</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.8552407140729</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.88339417981945</v>
+        <v>15.7777262382312</v>
       </c>
       <c r="C14">
-        <v>10.63131161878541</v>
+        <v>11.01943385656237</v>
       </c>
       <c r="D14">
-        <v>6.081833267492784</v>
+        <v>6.4214965922594</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.86812992580882</v>
+        <v>18.90222469284951</v>
       </c>
       <c r="G14">
-        <v>26.6169635001359</v>
+        <v>24.77692948806217</v>
       </c>
       <c r="H14">
-        <v>6.497806875995052</v>
+        <v>6.497610861461567</v>
       </c>
       <c r="I14">
-        <v>2.821273074627396</v>
+        <v>2.845357261317056</v>
       </c>
       <c r="J14">
-        <v>9.562003662679462</v>
+        <v>8.782902630584285</v>
       </c>
       <c r="K14">
-        <v>14.48704820807954</v>
+        <v>13.1872129375993</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.9680069728641</v>
       </c>
       <c r="M14">
-        <v>14.56433901755747</v>
+        <v>8.688085148598011</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.64465123018065</v>
+        <v>14.65456219302907</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.64621949781122</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.93222901335291</v>
+        <v>15.8318706197842</v>
       </c>
       <c r="C15">
-        <v>10.64708320817773</v>
+        <v>11.02470102176406</v>
       </c>
       <c r="D15">
-        <v>6.112120180001228</v>
+        <v>6.433168393546475</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.52754512693097</v>
+        <v>18.68212972078926</v>
       </c>
       <c r="G15">
-        <v>26.04162045307874</v>
+        <v>24.17154269389342</v>
       </c>
       <c r="H15">
-        <v>6.73924878442944</v>
+        <v>6.738846767587797</v>
       </c>
       <c r="I15">
-        <v>2.80148498800937</v>
+        <v>2.830419834436649</v>
       </c>
       <c r="J15">
-        <v>9.467895972058365</v>
+        <v>8.799064650207324</v>
       </c>
       <c r="K15">
-        <v>14.30587627618623</v>
+        <v>13.09291740701887</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.91755439650453</v>
       </c>
       <c r="M15">
-        <v>14.59832712231727</v>
+        <v>8.582309092014279</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.611073338932517</v>
+        <v>14.68830997174258</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.614519041181769</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.42455502674357</v>
+        <v>15.33080087572388</v>
       </c>
       <c r="C16">
-        <v>10.3325662222637</v>
+        <v>10.73607302802493</v>
       </c>
       <c r="D16">
-        <v>6.004249889619227</v>
+        <v>6.249033735285103</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.32103388729634</v>
+        <v>18.81744584864703</v>
       </c>
       <c r="G16">
-        <v>25.82244556384613</v>
+        <v>23.48934520442172</v>
       </c>
       <c r="H16">
-        <v>6.529717624955081</v>
+        <v>6.528147158371042</v>
       </c>
       <c r="I16">
-        <v>2.684387492773095</v>
+        <v>2.735158650816786</v>
       </c>
       <c r="J16">
-        <v>9.503303791746943</v>
+        <v>9.202327526082071</v>
       </c>
       <c r="K16">
-        <v>14.40118831111631</v>
+        <v>13.35097928128911</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.12882012907543</v>
       </c>
       <c r="M16">
-        <v>14.17126495231063</v>
+        <v>8.70359232952633</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.539559580990689</v>
+        <v>14.27661921380315</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.551836290562459</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.79648175025696</v>
+        <v>14.69989242421973</v>
       </c>
       <c r="C17">
-        <v>9.997744392663225</v>
+        <v>10.44149900282604</v>
       </c>
       <c r="D17">
-        <v>5.838089394474136</v>
+        <v>6.053887003113928</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.8286880374582</v>
+        <v>19.38059321877186</v>
       </c>
       <c r="G17">
-        <v>26.80595098192964</v>
+        <v>24.13632546945507</v>
       </c>
       <c r="H17">
-        <v>5.778781291505072</v>
+        <v>5.776310043799163</v>
       </c>
       <c r="I17">
-        <v>2.615127894162819</v>
+        <v>2.677598415563864</v>
       </c>
       <c r="J17">
-        <v>9.731153905082286</v>
+        <v>9.547713362986629</v>
       </c>
       <c r="K17">
-        <v>14.8643277714082</v>
+        <v>13.79100553627182</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.45019169906078</v>
       </c>
       <c r="M17">
-        <v>13.66794074157767</v>
+        <v>9.022819919681293</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.80287528099654</v>
+        <v>13.78713430127</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.81797976327757</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.00526668875466</v>
+        <v>13.89457420022152</v>
       </c>
       <c r="C18">
-        <v>9.594872375721808</v>
+        <v>10.1071102813922</v>
       </c>
       <c r="D18">
-        <v>5.607928399704538</v>
+        <v>5.818561161657878</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.04929666419005</v>
+        <v>20.4648104427987</v>
       </c>
       <c r="G18">
-        <v>29.01498364169988</v>
+        <v>25.93802061058759</v>
       </c>
       <c r="H18">
-        <v>4.477749576009819</v>
+        <v>4.474476943917825</v>
       </c>
       <c r="I18">
-        <v>2.580776662492943</v>
+        <v>2.64622684507079</v>
       </c>
       <c r="J18">
-        <v>10.16928742620825</v>
+        <v>9.965538078054999</v>
       </c>
       <c r="K18">
-        <v>15.75333361397494</v>
+        <v>14.51331956257352</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.96452329837341</v>
       </c>
       <c r="M18">
-        <v>13.04622572499053</v>
+        <v>9.597065865215567</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.50256574634019</v>
+        <v>13.18195280396139</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.51693333500983</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.1439433794165</v>
+        <v>13.01101208580427</v>
       </c>
       <c r="C19">
-        <v>9.220212743594542</v>
+        <v>9.818031598419044</v>
       </c>
       <c r="D19">
-        <v>5.374457950199958</v>
+        <v>5.588163065900273</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.66907040172644</v>
+        <v>21.83317725893943</v>
       </c>
       <c r="G19">
-        <v>31.90620640590833</v>
+        <v>28.3539840525337</v>
       </c>
       <c r="H19">
-        <v>3.058034512854138</v>
+        <v>3.063019636006737</v>
       </c>
       <c r="I19">
-        <v>2.595502312279009</v>
+        <v>2.658361120597046</v>
       </c>
       <c r="J19">
-        <v>10.72848132963407</v>
+        <v>10.42623610339391</v>
       </c>
       <c r="K19">
-        <v>16.90284432032108</v>
+        <v>15.40541354530652</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.59784931379488</v>
       </c>
       <c r="M19">
-        <v>12.39694846223037</v>
+        <v>10.32236371112481</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.83061090609269</v>
+        <v>12.54882755737426</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>22.8430143867699</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.18070665869243</v>
+        <v>11.99989308238894</v>
       </c>
       <c r="C20">
-        <v>8.884130160591136</v>
+        <v>9.612997946473142</v>
       </c>
       <c r="D20">
-        <v>5.119590604062537</v>
+        <v>5.351381628217048</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.45116900802514</v>
+        <v>24.05167271106961</v>
       </c>
       <c r="G20">
-        <v>36.77352166146287</v>
+        <v>32.56044275001749</v>
       </c>
       <c r="H20">
-        <v>2.486445302485912</v>
+        <v>2.490274508653513</v>
       </c>
       <c r="I20">
-        <v>2.730011503112873</v>
+        <v>2.770000040146294</v>
       </c>
       <c r="J20">
-        <v>11.64824475303095</v>
+        <v>11.00366238365437</v>
       </c>
       <c r="K20">
-        <v>18.81870163617085</v>
+        <v>16.79648188745648</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.53969236155776</v>
       </c>
       <c r="M20">
-        <v>11.70856795842913</v>
+        <v>11.52739841419174</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.98812196011215</v>
+        <v>11.87477197591316</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>32.99365447420736</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.76203674332809</v>
+        <v>12.551954823605</v>
       </c>
       <c r="C21">
-        <v>9.326125015794164</v>
+        <v>10.03768349715091</v>
       </c>
       <c r="D21">
-        <v>5.193081397985043</v>
+        <v>5.550904914909593</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.62622559333438</v>
+        <v>24.38615224447004</v>
       </c>
       <c r="G21">
-        <v>38.58367775416774</v>
+        <v>35.20277532733319</v>
       </c>
       <c r="H21">
-        <v>2.851634922015403</v>
+        <v>2.845900880325836</v>
       </c>
       <c r="I21">
-        <v>2.965044820704418</v>
+        <v>2.960219678881885</v>
       </c>
       <c r="J21">
-        <v>11.90462880059056</v>
+        <v>10.15872688491273</v>
       </c>
       <c r="K21">
-        <v>19.31168225886147</v>
+        <v>16.70858352801786</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.30096179773384</v>
       </c>
       <c r="M21">
-        <v>12.21975483973963</v>
+        <v>11.71964440556163</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.7420330244969</v>
+        <v>12.35941657621957</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>35.73373206077407</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.18519831937023</v>
+        <v>12.95976977766383</v>
       </c>
       <c r="C22">
-        <v>9.607592163246141</v>
+        <v>10.2960335421937</v>
       </c>
       <c r="D22">
-        <v>5.246297339782542</v>
+        <v>5.692110309648337</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.31979338366343</v>
+        <v>24.52319827101769</v>
       </c>
       <c r="G22">
-        <v>39.63286528739889</v>
+        <v>36.90329673448147</v>
       </c>
       <c r="H22">
-        <v>3.057550030760022</v>
+        <v>3.045674233096109</v>
       </c>
       <c r="I22">
-        <v>3.109352403375566</v>
+        <v>3.074775396096619</v>
       </c>
       <c r="J22">
-        <v>12.05111845297687</v>
+        <v>9.577688375297273</v>
       </c>
       <c r="K22">
-        <v>19.58979020591242</v>
+        <v>16.60110881025994</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.11235433573251</v>
       </c>
       <c r="M22">
-        <v>12.57710234250445</v>
+        <v>11.81049109604903</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.03288083063925</v>
+        <v>12.69809966208406</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>37.01564085922851</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.96742471410452</v>
+        <v>12.74707341913997</v>
       </c>
       <c r="C23">
-        <v>9.436884416930019</v>
+        <v>10.15191881283106</v>
       </c>
       <c r="D23">
-        <v>5.212947255664758</v>
+        <v>5.601595607016422</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.00243268500381</v>
+        <v>24.560503658305</v>
       </c>
       <c r="G23">
-        <v>39.16669243020201</v>
+        <v>35.93642484620597</v>
       </c>
       <c r="H23">
-        <v>2.948211582541728</v>
+        <v>2.939840956439898</v>
       </c>
       <c r="I23">
-        <v>3.028794104099265</v>
+        <v>3.009565719467891</v>
       </c>
       <c r="J23">
-        <v>11.99182148299952</v>
+        <v>10.00161276488172</v>
       </c>
       <c r="K23">
-        <v>19.48534822346375</v>
+        <v>16.73366499193931</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.26407417323031</v>
       </c>
       <c r="M23">
-        <v>12.38380760349027</v>
+        <v>11.82383246483607</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.34907636768656</v>
+        <v>12.5186148226216</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>36.33694283827518</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.09501568694013</v>
+        <v>11.91119267204556</v>
       </c>
       <c r="C24">
-        <v>8.80745233555705</v>
+        <v>9.541658976932633</v>
       </c>
       <c r="D24">
-        <v>5.091519910350108</v>
+        <v>5.318545486149483</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.70278521621544</v>
+        <v>24.273153916858</v>
       </c>
       <c r="G24">
-        <v>37.22592403147264</v>
+        <v>32.94270754630227</v>
       </c>
       <c r="H24">
-        <v>2.528023341042133</v>
+        <v>2.531711606684719</v>
       </c>
       <c r="I24">
-        <v>2.72528384542761</v>
+        <v>2.76235541437948</v>
       </c>
       <c r="J24">
-        <v>11.74061388418664</v>
+        <v>11.08728433724389</v>
       </c>
       <c r="K24">
-        <v>19.0208672291322</v>
+        <v>16.96294395525116</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.66165203631205</v>
       </c>
       <c r="M24">
-        <v>11.63044035578843</v>
+        <v>11.65785446663348</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.65500473300608</v>
+        <v>11.79794954131208</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>33.66033209616702</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.07366330402854</v>
+        <v>10.9614523580159</v>
       </c>
       <c r="C25">
-        <v>8.091897477162139</v>
+        <v>8.662562995995644</v>
       </c>
       <c r="D25">
-        <v>4.953265209320383</v>
+        <v>5.098711969798337</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.27594144786736</v>
+        <v>23.2520545608441</v>
       </c>
       <c r="G25">
-        <v>35.08191220520163</v>
+        <v>31.28623171428366</v>
       </c>
       <c r="H25">
-        <v>2.061444101370148</v>
+        <v>2.074726228740679</v>
       </c>
       <c r="I25">
-        <v>2.597046978323482</v>
+        <v>2.521990966755747</v>
       </c>
       <c r="J25">
-        <v>11.4789497160675</v>
+        <v>11.015632185415</v>
       </c>
       <c r="K25">
-        <v>18.52601814483951</v>
+        <v>16.7943519719548</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.79533954209658</v>
       </c>
       <c r="M25">
-        <v>10.7594811749465</v>
+        <v>11.17770489710036</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.52392934691997</v>
+        <v>10.91818854540325</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>30.54314660225484</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
